--- a/Excel Esports Sequencing Leeloo - old.xlsx
+++ b/Excel Esports Sequencing Leeloo - old.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28829"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8198FC2-80FB-426D-B411-81D1D3106040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325EA2F9-15EF-4FEA-8BA4-468A874C1120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,8 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile">0.5</definedName>
     <definedName name="_nCodon">_xlfn.ANCHORARRAY('Codon Table'!$C$22)</definedName>
     <definedName name="_nStop">Case!$K$79:$K$81</definedName>
+    <definedName name="_tCodon">'Codon Table'!$C$22:$C$149</definedName>
+    <definedName name="_tReverse">'Codon Table'!$F$22:$F$149</definedName>
     <definedName name="IQ_DNTM">700000</definedName>
     <definedName name="IQ_FWD_CY">10001</definedName>
     <definedName name="IQ_FWD_CY1">10002</definedName>
@@ -145,7 +147,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="8">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -160,25 +162,85 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="8">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
     </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="1104">
   <si>
     <t>Test Case</t>
   </si>
@@ -4663,6 +4725,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4777,6 +4840,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4793,6 +4857,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6149,24 +6214,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="18" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6182,6 +6234,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6197,9 +6250,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6215,22 +6296,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6246,6 +6311,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1655054</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>129629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885EC17E-EA2B-D7E5-A092-940D4A00CC89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="21059775"/>
+          <a:ext cx="10850489" cy="638264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6289,20 +6403,72 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
   <rv s="0">
+    <v>TGG</v>
+    <v>2</v>
+    <v>31</v>
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>2</v>
+    <v>31</v>
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <v>TTA</v>
+    <v>2</v>
+    <v>31</v>
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="2">
     <v>13</v>
     <v>3</v>
   </rv>
-  <rv s="1">
+  <rv s="3">
     <v>13</v>
     <v>1</v>
+  </rv>
+  <rv s="0">
+    <v>ACC</v>
+    <v>2</v>
+    <v>31</v>
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>CTG</v>
+    <v>2</v>
+    <v>31</v>
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>AAG</v>
+    <v>2</v>
+    <v>31</v>
+    <v>4</v>
+    <v>5</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_error">
+    <k n="argument" t="s"/>
+    <k n="errorType" t="i"/>
+    <k n="iftab" t="i"/>
+    <k n="ptg" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="iftab" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
   <s t="_error">
     <k n="errorType" t="i"/>
     <k n="subType" t="i"/>
@@ -6515,10 +6681,10 @@
   <sheetPr>
     <tabColor rgb="FFD9E2F3"/>
   </sheetPr>
-  <dimension ref="A1:R1000"/>
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E56" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -6533,10 +6699,11 @@
     <col min="8" max="8" width="91.69921875" customWidth="1"/>
     <col min="9" max="9" width="6.296875" customWidth="1"/>
     <col min="10" max="11" width="11.3984375" customWidth="1"/>
-    <col min="12" max="12" width="64" customWidth="1"/>
-    <col min="13" max="14" width="7.69921875" customWidth="1"/>
+    <col min="12" max="12" width="83.09765625" customWidth="1"/>
+    <col min="13" max="13" width="81.3984375" customWidth="1"/>
+    <col min="14" max="14" width="7.69921875" customWidth="1"/>
     <col min="15" max="15" width="8.796875" customWidth="1"/>
-    <col min="16" max="16" width="4.796875" customWidth="1"/>
+    <col min="16" max="16" width="7.8984375" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="26" width="4.796875" customWidth="1"/>
   </cols>
@@ -6557,50 +6724,50 @@
     </row>
     <row r="2" spans="1:12" ht="60.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="166"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="169"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="178"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="172"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="157" t="s">
+      <c r="J4" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="158"/>
+      <c r="K4" s="159"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="30.75" customHeight="1">
@@ -6613,10 +6780,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="157" t="s">
+      <c r="J5" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="158"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
@@ -6635,146 +6802,146 @@
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="176"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="26.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="170"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="163"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="170"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="163"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="26.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="170"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="163"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="170"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="163"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="26.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="170"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="26.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="170"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="26.25" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="170"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="163"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="26.25" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="172"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="165"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="23.25" customHeight="1">
@@ -6793,18 +6960,18 @@
     </row>
     <row r="18" spans="1:12" ht="25.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
@@ -6866,13 +7033,13 @@
         <v>11</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="159" t="s">
+      <c r="G22" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="161"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="181"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="33" customHeight="1">
@@ -6891,13 +7058,13 @@
         <f>IF(ISBLANK(E23),0,IF(E23=Answers!E23,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G23" s="162" t="s">
+      <c r="G23" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="164"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="184"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="33" customHeight="1">
@@ -6916,13 +7083,13 @@
         <f>IF(ISBLANK(E24),0,IF(E24=Answers!E24,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G24" s="165" t="s">
+      <c r="G24" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="166"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="169"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="33" customHeight="1">
@@ -6941,13 +7108,13 @@
         <f>IF(ISBLANK(E25),0,IF(E25=Answers!E25,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="165" t="s">
+      <c r="G25" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="166"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="169"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1">
@@ -7010,10 +7177,10 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="157" t="s">
+      <c r="J29" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="158"/>
+      <c r="K29" s="159"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
@@ -7026,11 +7193,11 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="167">
+      <c r="J30" s="160">
         <f t="array" ref="J30">SUMPRODUCT(--($F$23:$F$242=1),$D$23:$D$242)</f>
-        <v>100</v>
-      </c>
-      <c r="K30" s="168"/>
+        <v>220</v>
+      </c>
+      <c r="K30" s="161"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
@@ -7045,8 +7212,8 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="170"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="163"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
@@ -7061,8 +7228,8 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="172"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="165"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1">
@@ -7149,7 +7316,7 @@
       <c r="H37" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="202">
+      <c r="M37" s="157">
         <f>LEN(H37)-LEN(SUBSTITUTE(H37,G37,""))</f>
         <v>24</v>
       </c>
@@ -7163,7 +7330,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="M38" s="202">
+      <c r="M38" s="157">
         <f t="shared" ref="M38:M48" si="0">LEN(H38)-LEN(SUBSTITUTE(H38,G38,""))</f>
         <v>0</v>
       </c>
@@ -7193,7 +7360,7 @@
       <c r="H39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M39" s="202">
+      <c r="M39" s="157">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -7223,7 +7390,7 @@
       <c r="H40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="M40" s="202">
+      <c r="M40" s="157">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -7253,7 +7420,7 @@
       <c r="H41" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="202">
+      <c r="M41" s="157">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7283,7 +7450,7 @@
       <c r="H42" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="M42" s="202">
+      <c r="M42" s="157">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -7313,7 +7480,7 @@
       <c r="H43" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="M43" s="202">
+      <c r="M43" s="157">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -7343,7 +7510,7 @@
       <c r="H44" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="202">
+      <c r="M44" s="157">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -7373,7 +7540,7 @@
       <c r="H45" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="M45" s="202">
+      <c r="M45" s="157">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7403,7 +7570,7 @@
       <c r="H46" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="M46" s="202">
+      <c r="M46" s="157">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -7433,7 +7600,7 @@
       <c r="H47" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="M47" s="202">
+      <c r="M47" s="157">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -7463,7 +7630,7 @@
       <c r="H48" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="M48" s="202">
+      <c r="M48" s="157">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -7639,7 +7806,7 @@
       <c r="H61" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="M61" s="202">
+      <c r="M61" s="157">
         <f>LEN(_xlfn.TEXTBEFORE(H61,G61))+1</f>
         <v>8</v>
       </c>
@@ -7653,7 +7820,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="4"/>
       <c r="H62" s="1"/>
-      <c r="M62" s="202">
+      <c r="M62" s="157">
         <f t="shared" ref="M62:M72" si="2">LEN(_xlfn.TEXTBEFORE(H62,G62))+1</f>
         <v>1</v>
       </c>
@@ -7683,7 +7850,7 @@
       <c r="H63" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="M63" s="202">
+      <c r="M63" s="157">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
@@ -7713,7 +7880,7 @@
       <c r="H64" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="M64" s="202">
+      <c r="M64" s="157">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -7743,7 +7910,7 @@
       <c r="H65" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="M65" s="202">
+      <c r="M65" s="157">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
@@ -7773,7 +7940,7 @@
       <c r="H66" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="202">
+      <c r="M66" s="157">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -7803,7 +7970,7 @@
       <c r="H67" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="M67" s="202">
+      <c r="M67" s="157">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -7833,7 +8000,7 @@
       <c r="H68" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M68" s="202">
+      <c r="M68" s="157">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -7863,7 +8030,7 @@
       <c r="H69" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="M69" s="202">
+      <c r="M69" s="157">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -7893,7 +8060,7 @@
       <c r="H70" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="M70" s="202">
+      <c r="M70" s="157">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
@@ -7923,7 +8090,7 @@
       <c r="H71" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="M71" s="202">
+      <c r="M71" s="157">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -7953,7 +8120,7 @@
       <c r="H72" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="M72" s="202">
+      <c r="M72" s="157">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
@@ -8058,7 +8225,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="14.25" customHeight="1">
+    <row r="81" spans="1:19" ht="14.25" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="21" t="s">
@@ -8073,7 +8240,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.75" customHeight="1">
+    <row r="82" spans="1:19" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="30"/>
@@ -8083,7 +8250,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="25.5" customHeight="1">
+    <row r="83" spans="1:19" ht="25.5" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="5" t="s">
         <v>53</v>
@@ -8103,7 +8270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" customHeight="1">
+    <row r="84" spans="1:19" ht="15" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -8113,7 +8280,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="25.5" customHeight="1">
+    <row r="85" spans="1:19" ht="25.5" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="11" t="s">
         <v>86</v>
@@ -8135,24 +8302,32 @@
       <c r="H85" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="K85" cm="1">
-        <f t="array" ref="K85">MIN(IFERROR(SEARCH(_nStop,H85),99999))</f>
-        <v>55</v>
-      </c>
-      <c r="L85" t="str">
-        <f>MID(H85,4,K85-3)</f>
-        <v>ACAGCGCCAGGCAGTGGTGCAGCTGCCTGTCAGGAAGAGGCCTACTTCTGGT</v>
-      </c>
-      <c r="M85" t="str" cm="1">
-        <f t="array" ref="M85">_xlfn.TEXTJOIN("",1,MID(L85,_xlfn.SEQUENCE(LEN(L85),,LEN(L85),-1),1))</f>
-        <v>TGGTCTTCATCCGGAGAAGGACTGTCCGTCGACGTGGTGACGGACCGCGACA</v>
-      </c>
-      <c r="O85" t="str">
-        <f>MID(M85,MAX(IFERROR(SEARCH("TGG",M85),-1)),3)</f>
+      <c r="K85" t="str" cm="1">
+        <f t="array" ref="K85">MID(H85,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H85,4,999)),3)),3)</f>
         <v>TGG</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" ht="25.5" customHeight="1">
+      <c r="L85" s="157" t="e" vm="1">
+        <f>MID(H85,4,K85-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M85" t="e" cm="1" vm="2">
+        <f t="array" ref="M85">_xlfn.CONCAT(MID(L85,_xlfn.SEQUENCE(LEN(L85),1,LEN(L85),-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P85" cm="1">
+        <f t="array" ref="P85">MIN(IFERROR(SEARCH(_tReverse,M85),10000))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q85" t="e" vm="2">
+        <f>MID(M85,P85,P85+2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S85" t="e" cm="1" vm="2">
+        <f t="array" ref="S85">_xlfn.CONCAT(MID(Q85,_xlfn.SEQUENCE(3,1,3,-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="25.5" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="11" t="s">
         <v>89</v>
@@ -8174,24 +8349,32 @@
       <c r="H86" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="K86" cm="1">
-        <f t="array" ref="K86">MIN(IFERROR(SEARCH(_nStop,H86),99999))</f>
-        <v>3</v>
-      </c>
-      <c r="L86" t="str">
-        <f>MID(H86,4,K86-3)</f>
-        <v/>
-      </c>
-      <c r="M86" t="e" cm="1" vm="1">
-        <f t="array" ref="M86">_xlfn.TEXTJOIN("",1,MID(L86,_xlfn.SEQUENCE(LEN(L86),,LEN(L86),-1),1))</f>
+      <c r="K86" t="str" cm="1">
+        <f t="array" ref="K86">MID(H86,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H86,4,999)),3)),3)</f>
+        <v>TTA</v>
+      </c>
+      <c r="L86" s="157" t="e" vm="3">
+        <f t="shared" ref="L86:L88" si="4">MID(H86,4,K86-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O86" t="e" vm="2">
-        <f>MID(M86,MAX(IFERROR(SEARCH("TGG",M86),-1)),3)</f>
+      <c r="M86" t="e" cm="1" vm="2">
+        <f t="array" ref="M86">_xlfn.CONCAT(MID(L86,_xlfn.SEQUENCE(LEN(L86),1,LEN(L86),-1),1))</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" ht="15" customHeight="1">
+      <c r="P86" cm="1">
+        <f t="array" ref="P86">MIN(IFERROR(SEARCH(_tReverse,M86),10000))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q86" t="e" vm="2">
+        <f t="shared" ref="Q86:Q88" si="5">MID(M86,P86,P86+2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S86" t="e" cm="1" vm="2">
+        <f t="array" ref="S86">_xlfn.CONCAT(MID(Q86,_xlfn.SEQUENCE(3,1,3,-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="15" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -8200,11 +8383,35 @@
       <c r="F87" s="10"/>
       <c r="G87" s="1"/>
       <c r="H87" s="28"/>
-    </row>
-    <row r="88" spans="1:15" ht="25.5" customHeight="1">
+      <c r="K87" t="e" cm="1" vm="4">
+        <f t="array" ref="K87">MID(H87,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H87,4,999)),3)),3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L87" s="157" t="e" vm="5">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M87" t="e" cm="1" vm="5">
+        <f t="array" ref="M87">_xlfn.CONCAT(MID(L87,_xlfn.SEQUENCE(LEN(L87),1,LEN(L87),-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P87" cm="1">
+        <f t="array" ref="P87">MIN(IFERROR(SEARCH(_tReverse,M87),10000))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q87" t="e" vm="5">
+        <f t="shared" ref="Q87:Q88" si="6">MID(M87,P87,P87+2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S87" t="e" cm="1" vm="5">
+        <f t="array" ref="S87">_xlfn.CONCAT(MID(Q87,_xlfn.SEQUENCE(3,1,3,-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="25.5" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="26">
-        <f t="shared" ref="B88:B107" si="4">MAX($B$1:B87)+1</f>
+        <f t="shared" ref="B88:B107" si="7">MAX($B$1:B87)+1</f>
         <v>21</v>
       </c>
       <c r="C88" s="26">
@@ -8213,20 +8420,46 @@
       <c r="D88" s="12">
         <v>6</v>
       </c>
-      <c r="E88" s="13"/>
+      <c r="E88" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="F88" s="10">
         <f>IF(ISBLANK(E88),0,IF(E88=Answers!E88,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" ht="25.5" customHeight="1">
+      <c r="K88" t="str" cm="1">
+        <f t="array" ref="K88">MID(H88,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H88,4,999)),3)),3)</f>
+        <v>ACC</v>
+      </c>
+      <c r="L88" s="157" t="e" vm="6">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M88" t="e" cm="1" vm="2">
+        <f t="array" ref="M88">_xlfn.CONCAT(MID(L88,_xlfn.SEQUENCE(LEN(L88),1,LEN(L88),-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P88" cm="1">
+        <f t="array" ref="P88">MIN(IFERROR(SEARCH(_tReverse,M88),10000))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q88" t="e" vm="2">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S88" t="e" cm="1" vm="2">
+        <f t="array" ref="S88">_xlfn.CONCAT(MID(Q88,_xlfn.SEQUENCE(3,1,3,-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="25.5" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="C89" s="26">
@@ -8235,20 +8468,46 @@
       <c r="D89" s="12">
         <v>6</v>
       </c>
-      <c r="E89" s="13"/>
+      <c r="E89" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="F89" s="10">
         <f>IF(ISBLANK(E89),0,IF(E89=Answers!E89,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" ht="25.5" customHeight="1">
+      <c r="K89" t="str" cm="1">
+        <f t="array" ref="K89">MID(H89,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H89,4,999)),3)),3)</f>
+        <v>CTG</v>
+      </c>
+      <c r="L89" s="157" t="e" vm="7">
+        <f t="shared" ref="L87:L93" si="8">MID(H89,1,K89-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M89" t="e" cm="1" vm="2">
+        <f t="array" ref="M89">_xlfn.CONCAT(MID(MID(L89,4,10000),_xlfn.SEQUENCE(LEN(L89),1,LEN(L89),-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P89" cm="1">
+        <f t="array" ref="P89">MIN(IFERROR(SEARCH(_tReverse,M89),10000))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q89" t="e" vm="2">
+        <f t="shared" ref="Q87:Q93" si="9">MID(M89,P89,P89+2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S89" t="e" cm="1" vm="2">
+        <f t="array" ref="S89">_xlfn.CONCAT(MID(Q89,_xlfn.SEQUENCE(3,1,3,-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="25.5" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="C90" s="26">
@@ -8257,20 +8516,46 @@
       <c r="D90" s="12">
         <v>6</v>
       </c>
-      <c r="E90" s="13"/>
+      <c r="E90" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="F90" s="10">
         <f>IF(ISBLANK(E90),0,IF(E90=Answers!E90,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="25" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" ht="25.5" customHeight="1">
+      <c r="K90" t="str" cm="1">
+        <f t="array" ref="K90">MID(H90,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H90,4,999)),3)),3)</f>
+        <v>CTG</v>
+      </c>
+      <c r="L90" s="157" t="e" vm="7">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M90" t="e" cm="1" vm="2">
+        <f t="array" ref="M90">_xlfn.CONCAT(MID(MID(L90,4,10000),_xlfn.SEQUENCE(LEN(L90),1,LEN(L90),-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P90" cm="1">
+        <f t="array" ref="P90">MIN(IFERROR(SEARCH(_tReverse,M90),10000))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q90" t="e" vm="2">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S90" t="e" cm="1" vm="2">
+        <f t="array" ref="S90">_xlfn.CONCAT(MID(Q90,_xlfn.SEQUENCE(3,1,3,-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="25.5" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="C91" s="26">
@@ -8279,20 +8564,46 @@
       <c r="D91" s="12">
         <v>6</v>
       </c>
-      <c r="E91" s="13"/>
+      <c r="E91" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="F91" s="10">
         <f>IF(ISBLANK(E91),0,IF(E91=Answers!E91,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" ht="25.5" customHeight="1">
+      <c r="K91" t="str" cm="1">
+        <f t="array" ref="K91">MID(H91,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H91,4,999)),3)),3)</f>
+        <v>TGG</v>
+      </c>
+      <c r="L91" s="157" t="e" vm="1">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M91" t="e" cm="1" vm="2">
+        <f t="array" ref="M91">_xlfn.CONCAT(MID(MID(L91,4,10000),_xlfn.SEQUENCE(LEN(L91),1,LEN(L91),-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P91" cm="1">
+        <f t="array" ref="P91">MIN(IFERROR(SEARCH(_tReverse,M91),10000))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q91" t="e" vm="2">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S91" t="e" cm="1" vm="2">
+        <f t="array" ref="S91">_xlfn.CONCAT(MID(Q91,_xlfn.SEQUENCE(3,1,3,-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="25.5" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="C92" s="26">
@@ -8301,20 +8612,46 @@
       <c r="D92" s="12">
         <v>6</v>
       </c>
-      <c r="E92" s="13"/>
+      <c r="E92" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F92" s="10">
         <f>IF(ISBLANK(E92),0,IF(E92=Answers!E92,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" ht="25.5" customHeight="1">
+      <c r="K92" t="str" cm="1">
+        <f t="array" ref="K92">MID(H92,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H92,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+      <c r="L92" s="157" t="e" vm="8">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M92" t="e" cm="1" vm="2">
+        <f t="array" ref="M92">_xlfn.CONCAT(MID(MID(L92,4,10000),_xlfn.SEQUENCE(LEN(L92),1,LEN(L92),-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P92" cm="1">
+        <f t="array" ref="P92">MIN(IFERROR(SEARCH(_tReverse,M92),10000))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q92" t="e" vm="2">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S92" t="e" cm="1" vm="2">
+        <f t="array" ref="S92">_xlfn.CONCAT(MID(Q92,_xlfn.SEQUENCE(3,1,3,-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="25.5" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="C93" s="26">
@@ -8323,20 +8660,46 @@
       <c r="D93" s="12">
         <v>6</v>
       </c>
-      <c r="E93" s="13"/>
+      <c r="E93" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="F93" s="10">
         <f>IF(ISBLANK(E93),0,IF(E93=Answers!E93,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" ht="25.5" customHeight="1">
+      <c r="K93" t="str" cm="1">
+        <f t="array" ref="K93">MID(H93,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H93,4,999)),3)),3)</f>
+        <v>TGG</v>
+      </c>
+      <c r="L93" s="157" t="e" vm="1">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M93" t="e" cm="1" vm="2">
+        <f t="array" ref="M93">_xlfn.CONCAT(MID(MID(L93,4,10000),_xlfn.SEQUENCE(LEN(L93),1,LEN(L93),-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P93" cm="1">
+        <f t="array" ref="P93">MIN(IFERROR(SEARCH(_tReverse,M93),10000))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q93" t="e" vm="2">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S93" t="e" cm="1" vm="2">
+        <f t="array" ref="S93">_xlfn.CONCAT(MID(Q93,_xlfn.SEQUENCE(3,1,3,-1),1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="25.5" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="C94" s="26">
@@ -8345,20 +8708,26 @@
       <c r="D94" s="12">
         <v>6</v>
       </c>
-      <c r="E94" s="13"/>
+      <c r="E94" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="F94" s="10">
         <f>IF(ISBLANK(E94),0,IF(E94=Answers!E94,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" ht="25.5" customHeight="1">
+      <c r="K94" t="str" cm="1">
+        <f t="array" ref="K94">MID(H94,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H94,4,999)),3)),3)</f>
+        <v>TGG</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="25.5" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="C95" s="26">
@@ -8367,20 +8736,26 @@
       <c r="D95" s="12">
         <v>6</v>
       </c>
-      <c r="E95" s="13"/>
+      <c r="E95" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="F95" s="10">
         <f>IF(ISBLANK(E95),0,IF(E95=Answers!E95,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" ht="25.5" customHeight="1">
+      <c r="K95" t="str" cm="1">
+        <f t="array" ref="K95">MID(H95,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H95,4,999)),3)),3)</f>
+        <v>TGG</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="25.5" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="C96" s="26">
@@ -8389,20 +8764,26 @@
       <c r="D96" s="12">
         <v>6</v>
       </c>
-      <c r="E96" s="13"/>
+      <c r="E96" s="13" t="s">
+        <v>1088</v>
+      </c>
       <c r="F96" s="10">
         <f>IF(ISBLANK(E96),0,IF(E96=Answers!E96,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K96" t="str" cm="1">
+        <f t="array" ref="K96">MID(H96,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H96,4,999)),3)),3)</f>
+        <v>GCA</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="25.5" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="C97" s="26">
@@ -8411,20 +8792,26 @@
       <c r="D97" s="12">
         <v>6</v>
       </c>
-      <c r="E97" s="13"/>
+      <c r="E97" s="13" t="s">
+        <v>1041</v>
+      </c>
       <c r="F97" s="10">
         <f>IF(ISBLANK(E97),0,IF(E97=Answers!E97,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="25" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K97" t="str" cm="1">
+        <f t="array" ref="K97">MID(H97,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H97,4,999)),3)),3)</f>
+        <v>CCT</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="25.5" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="C98" s="26">
@@ -8433,20 +8820,26 @@
       <c r="D98" s="12">
         <v>6</v>
       </c>
-      <c r="E98" s="13"/>
+      <c r="E98" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="F98" s="10">
         <f>IF(ISBLANK(E98),0,IF(E98=Answers!E98,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K98" t="str" cm="1">
+        <f t="array" ref="K98">MID(H98,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H98,4,999)),3)),3)</f>
+        <v>CTG</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="25.5" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="C99" s="26">
@@ -8455,20 +8848,26 @@
       <c r="D99" s="12">
         <v>6</v>
       </c>
-      <c r="E99" s="13"/>
+      <c r="E99" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="F99" s="10">
         <f>IF(ISBLANK(E99),0,IF(E99=Answers!E99,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K99" t="str" cm="1">
+        <f t="array" ref="K99">MID(H99,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H99,4,999)),3)),3)</f>
+        <v>TGG</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="25.5" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="C100" s="26">
@@ -8477,20 +8876,26 @@
       <c r="D100" s="12">
         <v>6</v>
       </c>
-      <c r="E100" s="13"/>
+      <c r="E100" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="F100" s="10">
         <f>IF(ISBLANK(E100),0,IF(E100=Answers!E100,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K100" t="str" cm="1">
+        <f t="array" ref="K100">MID(H100,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H100,4,999)),3)),3)</f>
+        <v>TGG</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="25.5" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="C101" s="26">
@@ -8499,20 +8904,26 @@
       <c r="D101" s="12">
         <v>6</v>
       </c>
-      <c r="E101" s="13"/>
+      <c r="E101" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="F101" s="10">
         <f>IF(ISBLANK(E101),0,IF(E101=Answers!E101,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="25" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K101" t="str" cm="1">
+        <f t="array" ref="K101">MID(H101,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H101,4,999)),3)),3)</f>
+        <v>CTG</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="25.5" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="C102" s="26">
@@ -8521,20 +8932,26 @@
       <c r="D102" s="12">
         <v>6</v>
       </c>
-      <c r="E102" s="13"/>
+      <c r="E102" s="13" t="s">
+        <v>1075</v>
+      </c>
       <c r="F102" s="10">
         <f>IF(ISBLANK(E102),0,IF(E102=Answers!E102,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="25" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K102" t="str" cm="1">
+        <f t="array" ref="K102">MID(H102,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H102,4,999)),3)),3)</f>
+        <v>AGG</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="25.5" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="C103" s="26">
@@ -8543,20 +8960,26 @@
       <c r="D103" s="12">
         <v>6</v>
       </c>
-      <c r="E103" s="13"/>
+      <c r="E103" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F103" s="10">
         <f>IF(ISBLANK(E103),0,IF(E103=Answers!E103,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K103" t="str" cm="1">
+        <f t="array" ref="K103">MID(H103,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H103,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="25.5" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="C104" s="26">
@@ -8565,20 +8988,26 @@
       <c r="D104" s="12">
         <v>6</v>
       </c>
-      <c r="E104" s="13"/>
+      <c r="E104" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F104" s="10">
         <f>IF(ISBLANK(E104),0,IF(E104=Answers!E104,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="25" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K104" t="str" cm="1">
+        <f t="array" ref="K104">MID(H104,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H104,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="25.5" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="C105" s="26">
@@ -8587,20 +9016,26 @@
       <c r="D105" s="12">
         <v>6</v>
       </c>
-      <c r="E105" s="13"/>
+      <c r="E105" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F105" s="10">
         <f>IF(ISBLANK(E105),0,IF(E105=Answers!E105,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="25" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K105" t="str" cm="1">
+        <f t="array" ref="K105">MID(H105,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H105,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="25.5" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="C106" s="26">
@@ -8609,20 +9044,26 @@
       <c r="D106" s="12">
         <v>6</v>
       </c>
-      <c r="E106" s="13"/>
+      <c r="E106" s="13" t="s">
+        <v>1055</v>
+      </c>
       <c r="F106" s="10">
         <f>IF(ISBLANK(E106),0,IF(E106=Answers!E106,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K106" t="str" cm="1">
+        <f t="array" ref="K106">MID(H106,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H106,4,999)),3)),3)</f>
+        <v>CAG</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="25.5" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="C107" s="26">
@@ -8631,17 +9072,23 @@
       <c r="D107" s="12">
         <v>6</v>
       </c>
-      <c r="E107" s="13"/>
+      <c r="E107" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F107" s="10">
         <f>IF(ISBLANK(E107),0,IF(E107=Answers!E107,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="25" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="15" customHeight="1">
+      <c r="K107" t="str" cm="1">
+        <f t="array" ref="K107">MID(H107,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(H107,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -8651,7 +9098,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" ht="15" customHeight="1">
+    <row r="109" spans="1:11" ht="15" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -8661,7 +9108,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" ht="24.75" customHeight="1">
+    <row r="110" spans="1:11" ht="24.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="18" t="s">
         <v>111</v>
@@ -8674,10 +9121,10 @@
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="173"/>
-      <c r="H110" s="174"/>
-    </row>
-    <row r="111" spans="1:8" ht="14.25" customHeight="1">
+      <c r="G110" s="166"/>
+      <c r="H110" s="167"/>
+    </row>
+    <row r="111" spans="1:11" ht="14.25" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -8687,7 +9134,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" ht="14.25" customHeight="1">
+    <row r="112" spans="1:11" ht="14.25" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="3" t="s">
         <v>113</v>
@@ -8799,7 +9246,7 @@
     <row r="120" spans="1:8" ht="25.5" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="26">
-        <f t="shared" ref="B120:B139" si="5">MAX($B$1:B119)+1</f>
+        <f t="shared" ref="B120:B139" si="10">MAX($B$1:B119)+1</f>
         <v>41</v>
       </c>
       <c r="C120" s="26">
@@ -8821,7 +9268,7 @@
     <row r="121" spans="1:8" ht="25.5" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="C121" s="26">
@@ -8843,7 +9290,7 @@
     <row r="122" spans="1:8" ht="25.5" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="C122" s="26">
@@ -8865,7 +9312,7 @@
     <row r="123" spans="1:8" ht="25.5" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="C123" s="26">
@@ -8887,7 +9334,7 @@
     <row r="124" spans="1:8" ht="25.5" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="C124" s="26">
@@ -8909,7 +9356,7 @@
     <row r="125" spans="1:8" ht="25.5" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="C125" s="26">
@@ -8931,7 +9378,7 @@
     <row r="126" spans="1:8" ht="25.5" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="C126" s="26">
@@ -8953,7 +9400,7 @@
     <row r="127" spans="1:8" ht="25.5" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="C127" s="26">
@@ -8975,7 +9422,7 @@
     <row r="128" spans="1:8" ht="25.5" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="C128" s="26">
@@ -8997,7 +9444,7 @@
     <row r="129" spans="1:8" ht="25.5" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="C129" s="26">
@@ -9019,7 +9466,7 @@
     <row r="130" spans="1:8" ht="25.5" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="C130" s="26">
@@ -9041,7 +9488,7 @@
     <row r="131" spans="1:8" ht="25.5" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="C131" s="26">
@@ -9063,7 +9510,7 @@
     <row r="132" spans="1:8" ht="25.5" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="C132" s="26">
@@ -9085,7 +9532,7 @@
     <row r="133" spans="1:8" ht="25.5" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="C133" s="26">
@@ -9107,7 +9554,7 @@
     <row r="134" spans="1:8" ht="25.5" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="C134" s="26">
@@ -9129,7 +9576,7 @@
     <row r="135" spans="1:8" ht="25.5" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="C135" s="26">
@@ -9151,7 +9598,7 @@
     <row r="136" spans="1:8" ht="25.5" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="C136" s="26">
@@ -9173,7 +9620,7 @@
     <row r="137" spans="1:8" ht="25.5" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="C137" s="26">
@@ -9195,7 +9642,7 @@
     <row r="138" spans="1:8" ht="25.5" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="C138" s="26">
@@ -9217,7 +9664,7 @@
     <row r="139" spans="1:8" ht="25.5" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="C139" s="26">
@@ -9422,7 +9869,7 @@
     <row r="154" spans="1:8" ht="25.5" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="26">
-        <f t="shared" ref="B154:B173" si="6">MAX($B$1:B153)+1</f>
+        <f t="shared" ref="B154:B173" si="11">MAX($B$1:B153)+1</f>
         <v>61</v>
       </c>
       <c r="C154" s="26">
@@ -9446,7 +9893,7 @@
     <row r="155" spans="1:8" ht="25.5" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="C155" s="26">
@@ -9470,7 +9917,7 @@
     <row r="156" spans="1:8" ht="25.5" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>63</v>
       </c>
       <c r="C156" s="26">
@@ -9494,7 +9941,7 @@
     <row r="157" spans="1:8" ht="25.5" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="C157" s="26">
@@ -9518,7 +9965,7 @@
     <row r="158" spans="1:8" ht="25.5" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="C158" s="26">
@@ -9542,7 +9989,7 @@
     <row r="159" spans="1:8" ht="25.5" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>66</v>
       </c>
       <c r="C159" s="26">
@@ -9566,7 +10013,7 @@
     <row r="160" spans="1:8" ht="25.5" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="C160" s="26">
@@ -9590,7 +10037,7 @@
     <row r="161" spans="1:14" ht="25.5" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="C161" s="26">
@@ -9614,7 +10061,7 @@
     <row r="162" spans="1:14" ht="25.5" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="C162" s="26">
@@ -9638,7 +10085,7 @@
     <row r="163" spans="1:14" ht="25.5" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="C163" s="26">
@@ -9662,7 +10109,7 @@
     <row r="164" spans="1:14" ht="25.5" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="C164" s="26">
@@ -9686,7 +10133,7 @@
     <row r="165" spans="1:14" ht="25.5" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="C165" s="26">
@@ -9710,7 +10157,7 @@
     <row r="166" spans="1:14" ht="25.5" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="C166" s="26">
@@ -9734,7 +10181,7 @@
     <row r="167" spans="1:14" ht="25.5" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="C167" s="26">
@@ -9758,7 +10205,7 @@
     <row r="168" spans="1:14" ht="25.5" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="C168" s="26">
@@ -9782,7 +10229,7 @@
     <row r="169" spans="1:14" ht="25.5" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="C169" s="26">
@@ -9806,7 +10253,7 @@
     <row r="170" spans="1:14" ht="25.5" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="C170" s="26">
@@ -9830,7 +10277,7 @@
     <row r="171" spans="1:14" ht="25.5" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="C171" s="26">
@@ -9854,7 +10301,7 @@
     <row r="172" spans="1:14" ht="25.5" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="C172" s="26">
@@ -9878,7 +10325,7 @@
     <row r="173" spans="1:14" ht="25.5" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C173" s="26">
@@ -10145,7 +10592,7 @@
     <row r="187" spans="1:18" ht="25.5" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="26">
-        <f t="shared" ref="B187:B206" si="7">MAX($B$1:B186)+1</f>
+        <f t="shared" ref="B187:B206" si="12">MAX($B$1:B186)+1</f>
         <v>81</v>
       </c>
       <c r="C187" s="26">
@@ -10169,7 +10616,7 @@
     <row r="188" spans="1:18" ht="25.5" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="C188" s="26">
@@ -10193,7 +10640,7 @@
     <row r="189" spans="1:18" ht="25.5" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="C189" s="26">
@@ -10217,7 +10664,7 @@
     <row r="190" spans="1:18" ht="25.5" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="C190" s="26">
@@ -10241,7 +10688,7 @@
     <row r="191" spans="1:18" ht="25.5" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="C191" s="26">
@@ -10265,7 +10712,7 @@
     <row r="192" spans="1:18" ht="25.5" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="C192" s="26">
@@ -10289,7 +10736,7 @@
     <row r="193" spans="1:8" ht="25.5" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="C193" s="26">
@@ -10313,7 +10760,7 @@
     <row r="194" spans="1:8" ht="25.5" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="C194" s="26">
@@ -10337,7 +10784,7 @@
     <row r="195" spans="1:8" ht="25.5" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="C195" s="26">
@@ -10361,7 +10808,7 @@
     <row r="196" spans="1:8" ht="25.5" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="C196" s="26">
@@ -10385,7 +10832,7 @@
     <row r="197" spans="1:8" ht="25.5" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="C197" s="26">
@@ -10409,7 +10856,7 @@
     <row r="198" spans="1:8" ht="25.5" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="C198" s="26">
@@ -10433,7 +10880,7 @@
     <row r="199" spans="1:8" ht="25.5" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="C199" s="26">
@@ -10457,7 +10904,7 @@
     <row r="200" spans="1:8" ht="25.5" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="C200" s="26">
@@ -10481,7 +10928,7 @@
     <row r="201" spans="1:8" ht="25.5" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="C201" s="26">
@@ -10505,7 +10952,7 @@
     <row r="202" spans="1:8" ht="25.5" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="C202" s="26">
@@ -10529,7 +10976,7 @@
     <row r="203" spans="1:8" ht="25.5" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="C203" s="26">
@@ -10553,7 +11000,7 @@
     <row r="204" spans="1:8" ht="25.5" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
       <c r="C204" s="26">
@@ -10577,7 +11024,7 @@
     <row r="205" spans="1:8" ht="25.5" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="C205" s="26">
@@ -10601,7 +11048,7 @@
     <row r="206" spans="1:8" ht="25.5" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="C206" s="26">
@@ -11436,6 +11883,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11461,8 +11909,8 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="161"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="181"/>
       <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
@@ -20538,8 +20986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F149"/>
+    <sheetView showGridLines="0" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -20564,20 +21012,20 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="201" t="s">
         <v>1019</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="187" t="s">
         <v>1020</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="196" t="s">
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="188" t="s">
         <v>1021</v>
       </c>
       <c r="L2" s="48"/>
@@ -20585,30 +21033,30 @@
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="198" t="s">
+      <c r="B3" s="202"/>
+      <c r="C3" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="199"/>
-      <c r="E3" s="198" t="s">
+      <c r="D3" s="191"/>
+      <c r="E3" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="200" t="s">
+      <c r="F3" s="191"/>
+      <c r="G3" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="201"/>
-      <c r="I3" s="200" t="s">
+      <c r="H3" s="193"/>
+      <c r="I3" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="201"/>
-      <c r="K3" s="197"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="189"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="47"/>
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="194" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -20643,7 +21091,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="47"/>
-      <c r="B5" s="187"/>
+      <c r="B5" s="195"/>
       <c r="C5" s="62" t="s">
         <v>1028</v>
       </c>
@@ -20676,7 +21124,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="47"/>
-      <c r="B6" s="187"/>
+      <c r="B6" s="195"/>
       <c r="C6" s="70" t="s">
         <v>68</v>
       </c>
@@ -20709,7 +21157,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="188"/>
+      <c r="B7" s="196"/>
       <c r="C7" s="76" t="s">
         <v>74</v>
       </c>
@@ -20742,7 +21190,7 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="47"/>
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="197" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="84" t="s">
@@ -20778,7 +21226,7 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="47"/>
-      <c r="B9" s="190"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="70" t="s">
         <v>1047</v>
       </c>
@@ -20811,7 +21259,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="47"/>
-      <c r="B10" s="190"/>
+      <c r="B10" s="198"/>
       <c r="C10" s="70" t="s">
         <v>1050</v>
       </c>
@@ -20844,7 +21292,7 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="47"/>
-      <c r="B11" s="191"/>
+      <c r="B11" s="199"/>
       <c r="C11" s="76" t="s">
         <v>66</v>
       </c>
@@ -20877,7 +21325,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="47"/>
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="197" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="106" t="s">
@@ -20913,7 +21361,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="47"/>
-      <c r="B13" s="190"/>
+      <c r="B13" s="198"/>
       <c r="C13" s="112" t="s">
         <v>1064</v>
       </c>
@@ -20946,7 +21394,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="47"/>
-      <c r="B14" s="190"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="112" t="s">
         <v>1067</v>
       </c>
@@ -20979,7 +21427,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="47"/>
-      <c r="B15" s="191"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="122" t="s">
         <v>1072</v>
       </c>
@@ -21012,7 +21460,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="47"/>
-      <c r="B16" s="189" t="s">
+      <c r="B16" s="197" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="130" t="s">
@@ -21048,7 +21496,7 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="47"/>
-      <c r="B17" s="190"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="138" t="s">
         <v>1084</v>
       </c>
@@ -21081,7 +21529,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="47"/>
-      <c r="B18" s="190"/>
+      <c r="B18" s="198"/>
       <c r="C18" s="138" t="s">
         <v>1087</v>
       </c>
@@ -21114,7 +21562,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="47"/>
-      <c r="B19" s="192"/>
+      <c r="B19" s="200"/>
       <c r="C19" s="148" t="s">
         <v>1092</v>
       </c>
@@ -21152,13 +21600,8 @@
       <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C22" t="str" cm="1">
-        <f t="array" ref="C22:C149">TRIM(_xlfn.TOCOL(C4:J19,,))</f>
-        <v>TTT</v>
-      </c>
-      <c r="D22" t="str" cm="1">
-        <f t="array" ref="D22:D149">MID(_xlfn.ANCHORARRAY(C22),_xlfn.SEQUENCE(1,LEN(_xlfn.ANCHORARRAY(C22)),LEN(_xlfn.ANCHORARRAY(C22)),-1),LEN(_xlfn.ANCHORARRAY(C22)))</f>
-        <v>T</v>
+      <c r="C22" t="s">
+        <v>64</v>
       </c>
       <c r="F22" t="str" cm="1">
         <f t="array" ref="F22">_xlfn.CONCAT(MID(C22,_xlfn.SEQUENCE(1,LEN(C22),LEN(C22),-1),1))</f>
@@ -21167,11 +21610,8 @@
       <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C23" t="str">
-        <v>Phe</v>
-      </c>
-      <c r="D23" t="str">
-        <v>e</v>
+      <c r="C23" t="s">
+        <v>1022</v>
       </c>
       <c r="F23" t="str" cm="1">
         <f t="array" ref="F23">_xlfn.CONCAT(MID(C23,_xlfn.SEQUENCE(1,LEN(C23),LEN(C23),-1),1))</f>
@@ -21180,11 +21620,8 @@
       <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C24" t="str">
-        <v>TCT</v>
-      </c>
-      <c r="D24" t="str">
-        <v>T</v>
+      <c r="C24" t="s">
+        <v>76</v>
       </c>
       <c r="F24" t="str" cm="1">
         <f t="array" ref="F24">_xlfn.CONCAT(MID(C24,_xlfn.SEQUENCE(1,LEN(C24),LEN(C24),-1),1))</f>
@@ -21193,11 +21630,8 @@
       <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C25" t="str">
-        <v>Ser</v>
-      </c>
-      <c r="D25" t="str">
-        <v>r</v>
+      <c r="C25" t="s">
+        <v>1023</v>
       </c>
       <c r="F25" t="str" cm="1">
         <f t="array" ref="F25">_xlfn.CONCAT(MID(C25,_xlfn.SEQUENCE(1,LEN(C25),LEN(C25),-1),1))</f>
@@ -21206,11 +21640,8 @@
       <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C26" t="str">
-        <v>TAT</v>
-      </c>
-      <c r="D26" t="str">
-        <v>T</v>
+      <c r="C26" t="s">
+        <v>1024</v>
       </c>
       <c r="F26" t="str" cm="1">
         <f t="array" ref="F26">_xlfn.CONCAT(MID(C26,_xlfn.SEQUENCE(1,LEN(C26),LEN(C26),-1),1))</f>
@@ -21219,11 +21650,8 @@
       <c r="K26" s="40"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C27" t="str">
-        <v>Tyr</v>
-      </c>
-      <c r="D27" t="str">
-        <v>r</v>
+      <c r="C27" t="s">
+        <v>1025</v>
       </c>
       <c r="F27" t="str" cm="1">
         <f t="array" ref="F27">_xlfn.CONCAT(MID(C27,_xlfn.SEQUENCE(1,LEN(C27),LEN(C27),-1),1))</f>
@@ -21232,11 +21660,8 @@
       <c r="K27" s="40"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C28" t="str">
-        <v>TGT</v>
-      </c>
-      <c r="D28" t="str">
-        <v>T</v>
+      <c r="C28" t="s">
+        <v>1026</v>
       </c>
       <c r="F28" t="str" cm="1">
         <f t="array" ref="F28">_xlfn.CONCAT(MID(C28,_xlfn.SEQUENCE(1,LEN(C28),LEN(C28),-1),1))</f>
@@ -21245,11 +21670,8 @@
       <c r="K28" s="40"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C29" t="str">
-        <v>Cys</v>
-      </c>
-      <c r="D29" t="str">
-        <v>s</v>
+      <c r="C29" t="s">
+        <v>1027</v>
       </c>
       <c r="F29" t="str" cm="1">
         <f t="array" ref="F29">_xlfn.CONCAT(MID(C29,_xlfn.SEQUENCE(1,LEN(C29),LEN(C29),-1),1))</f>
@@ -21258,11 +21680,8 @@
       <c r="K29" s="40"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C30" t="str">
-        <v>TTC</v>
-      </c>
-      <c r="D30" t="str">
-        <v>C</v>
+      <c r="C30" t="s">
+        <v>1028</v>
       </c>
       <c r="F30" t="str" cm="1">
         <f t="array" ref="F30">_xlfn.CONCAT(MID(C30,_xlfn.SEQUENCE(1,LEN(C30),LEN(C30),-1),1))</f>
@@ -21271,11 +21690,8 @@
       <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C31" t="str">
-        <v>Phe</v>
-      </c>
-      <c r="D31" t="str">
-        <v>e</v>
+      <c r="C31" t="s">
+        <v>1022</v>
       </c>
       <c r="F31" t="str" cm="1">
         <f t="array" ref="F31">_xlfn.CONCAT(MID(C31,_xlfn.SEQUENCE(1,LEN(C31),LEN(C31),-1),1))</f>
@@ -21284,11 +21700,8 @@
       <c r="K31" s="40"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C32" t="str">
-        <v>TCC</v>
-      </c>
-      <c r="D32" t="str">
-        <v>C</v>
+      <c r="C32" t="s">
+        <v>1029</v>
       </c>
       <c r="F32" t="str" cm="1">
         <f t="array" ref="F32">_xlfn.CONCAT(MID(C32,_xlfn.SEQUENCE(1,LEN(C32),LEN(C32),-1),1))</f>
@@ -21297,11 +21710,8 @@
       <c r="K32" s="40"/>
     </row>
     <row r="33" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C33" t="str">
-        <v>Ser</v>
-      </c>
-      <c r="D33" t="str">
-        <v>r</v>
+      <c r="C33" t="s">
+        <v>1023</v>
       </c>
       <c r="F33" t="str" cm="1">
         <f t="array" ref="F33">_xlfn.CONCAT(MID(C33,_xlfn.SEQUENCE(1,LEN(C33),LEN(C33),-1),1))</f>
@@ -21310,11 +21720,8 @@
       <c r="K33" s="40"/>
     </row>
     <row r="34" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C34" t="str">
-        <v>TAC</v>
-      </c>
-      <c r="D34" t="str">
-        <v>C</v>
+      <c r="C34" t="s">
+        <v>1030</v>
       </c>
       <c r="F34" t="str" cm="1">
         <f t="array" ref="F34">_xlfn.CONCAT(MID(C34,_xlfn.SEQUENCE(1,LEN(C34),LEN(C34),-1),1))</f>
@@ -21323,11 +21730,8 @@
       <c r="K34" s="40"/>
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C35" t="str">
-        <v>Tyr</v>
-      </c>
-      <c r="D35" t="str">
-        <v>r</v>
+      <c r="C35" t="s">
+        <v>1025</v>
       </c>
       <c r="F35" t="str" cm="1">
         <f t="array" ref="F35">_xlfn.CONCAT(MID(C35,_xlfn.SEQUENCE(1,LEN(C35),LEN(C35),-1),1))</f>
@@ -21336,11 +21740,8 @@
       <c r="K35" s="40"/>
     </row>
     <row r="36" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C36" t="str">
-        <v>TGC</v>
-      </c>
-      <c r="D36" t="str">
-        <v>C</v>
+      <c r="C36" t="s">
+        <v>1031</v>
       </c>
       <c r="F36" t="str" cm="1">
         <f t="array" ref="F36">_xlfn.CONCAT(MID(C36,_xlfn.SEQUENCE(1,LEN(C36),LEN(C36),-1),1))</f>
@@ -21349,11 +21750,8 @@
       <c r="K36" s="40"/>
     </row>
     <row r="37" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C37" t="str">
-        <v>Cys</v>
-      </c>
-      <c r="D37" t="str">
-        <v>s</v>
+      <c r="C37" t="s">
+        <v>1027</v>
       </c>
       <c r="F37" t="str" cm="1">
         <f t="array" ref="F37">_xlfn.CONCAT(MID(C37,_xlfn.SEQUENCE(1,LEN(C37),LEN(C37),-1),1))</f>
@@ -21362,11 +21760,8 @@
       <c r="K37" s="40"/>
     </row>
     <row r="38" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C38" t="str">
-        <v>TTA</v>
-      </c>
-      <c r="D38" t="str">
-        <v>A</v>
+      <c r="C38" t="s">
+        <v>68</v>
       </c>
       <c r="F38" t="str" cm="1">
         <f t="array" ref="F38">_xlfn.CONCAT(MID(C38,_xlfn.SEQUENCE(1,LEN(C38),LEN(C38),-1),1))</f>
@@ -21375,11 +21770,8 @@
       <c r="K38" s="40"/>
     </row>
     <row r="39" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C39" t="str">
-        <v>Leu</v>
-      </c>
-      <c r="D39" t="str">
-        <v>u</v>
+      <c r="C39" t="s">
+        <v>1032</v>
       </c>
       <c r="F39" t="str" cm="1">
         <f t="array" ref="F39">_xlfn.CONCAT(MID(C39,_xlfn.SEQUENCE(1,LEN(C39),LEN(C39),-1),1))</f>
@@ -21388,11 +21780,8 @@
       <c r="K39" s="40"/>
     </row>
     <row r="40" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C40" t="str">
-        <v>TCA</v>
-      </c>
-      <c r="D40" t="str">
-        <v>A</v>
+      <c r="C40" t="s">
+        <v>1033</v>
       </c>
       <c r="F40" t="str" cm="1">
         <f t="array" ref="F40">_xlfn.CONCAT(MID(C40,_xlfn.SEQUENCE(1,LEN(C40),LEN(C40),-1),1))</f>
@@ -21401,11 +21790,8 @@
       <c r="K40" s="40"/>
     </row>
     <row r="41" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C41" t="str">
-        <v>Ser</v>
-      </c>
-      <c r="D41" t="str">
-        <v>r</v>
+      <c r="C41" t="s">
+        <v>1023</v>
       </c>
       <c r="F41" t="str" cm="1">
         <f t="array" ref="F41">_xlfn.CONCAT(MID(C41,_xlfn.SEQUENCE(1,LEN(C41),LEN(C41),-1),1))</f>
@@ -21414,11 +21800,8 @@
       <c r="K41" s="40"/>
     </row>
     <row r="42" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C42" t="str">
-        <v>TAA</v>
-      </c>
-      <c r="D42" t="str">
-        <v>A</v>
+      <c r="C42" t="s">
+        <v>1034</v>
       </c>
       <c r="F42" t="str" cm="1">
         <f t="array" ref="F42">_xlfn.CONCAT(MID(C42,_xlfn.SEQUENCE(1,LEN(C42),LEN(C42),-1),1))</f>
@@ -21427,11 +21810,8 @@
       <c r="K42" s="40"/>
     </row>
     <row r="43" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C43" t="str">
-        <v>STOP</v>
-      </c>
-      <c r="D43" t="str">
-        <v>P</v>
+      <c r="C43" t="s">
+        <v>1035</v>
       </c>
       <c r="F43" t="str" cm="1">
         <f t="array" ref="F43">_xlfn.CONCAT(MID(C43,_xlfn.SEQUENCE(1,LEN(C43),LEN(C43),-1),1))</f>
@@ -21440,11 +21820,8 @@
       <c r="K43" s="40"/>
     </row>
     <row r="44" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C44" t="str">
-        <v>TGA</v>
-      </c>
-      <c r="D44" t="str">
-        <v>A</v>
+      <c r="C44" t="s">
+        <v>1036</v>
       </c>
       <c r="F44" t="str" cm="1">
         <f t="array" ref="F44">_xlfn.CONCAT(MID(C44,_xlfn.SEQUENCE(1,LEN(C44),LEN(C44),-1),1))</f>
@@ -21453,11 +21830,8 @@
       <c r="K44" s="40"/>
     </row>
     <row r="45" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C45" t="str">
-        <v>STOP</v>
-      </c>
-      <c r="D45" t="str">
-        <v>P</v>
+      <c r="C45" t="s">
+        <v>1035</v>
       </c>
       <c r="F45" t="str" cm="1">
         <f t="array" ref="F45">_xlfn.CONCAT(MID(C45,_xlfn.SEQUENCE(1,LEN(C45),LEN(C45),-1),1))</f>
@@ -21466,11 +21840,8 @@
       <c r="K45" s="40"/>
     </row>
     <row r="46" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C46" t="str">
-        <v>TTG</v>
-      </c>
-      <c r="D46" t="str">
-        <v>G</v>
+      <c r="C46" t="s">
+        <v>74</v>
       </c>
       <c r="F46" t="str" cm="1">
         <f t="array" ref="F46">_xlfn.CONCAT(MID(C46,_xlfn.SEQUENCE(1,LEN(C46),LEN(C46),-1),1))</f>
@@ -21479,11 +21850,8 @@
       <c r="K46" s="40"/>
     </row>
     <row r="47" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C47" t="str">
-        <v>Leu</v>
-      </c>
-      <c r="D47" t="str">
-        <v>u</v>
+      <c r="C47" t="s">
+        <v>1032</v>
       </c>
       <c r="F47" t="str" cm="1">
         <f t="array" ref="F47">_xlfn.CONCAT(MID(C47,_xlfn.SEQUENCE(1,LEN(C47),LEN(C47),-1),1))</f>
@@ -21492,11 +21860,8 @@
       <c r="K47" s="40"/>
     </row>
     <row r="48" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C48" t="str">
-        <v>TCG</v>
-      </c>
-      <c r="D48" t="str">
-        <v>G</v>
+      <c r="C48" t="s">
+        <v>1037</v>
       </c>
       <c r="F48" t="str" cm="1">
         <f t="array" ref="F48">_xlfn.CONCAT(MID(C48,_xlfn.SEQUENCE(1,LEN(C48),LEN(C48),-1),1))</f>
@@ -21505,11 +21870,8 @@
       <c r="K48" s="40"/>
     </row>
     <row r="49" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C49" t="str">
-        <v>Ser</v>
-      </c>
-      <c r="D49" t="str">
-        <v>r</v>
+      <c r="C49" t="s">
+        <v>1023</v>
       </c>
       <c r="F49" t="str" cm="1">
         <f t="array" ref="F49">_xlfn.CONCAT(MID(C49,_xlfn.SEQUENCE(1,LEN(C49),LEN(C49),-1),1))</f>
@@ -21518,11 +21880,8 @@
       <c r="K49" s="40"/>
     </row>
     <row r="50" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C50" t="str">
-        <v>TAG</v>
-      </c>
-      <c r="D50" t="str">
-        <v>G</v>
+      <c r="C50" t="s">
+        <v>1038</v>
       </c>
       <c r="F50" t="str" cm="1">
         <f t="array" ref="F50">_xlfn.CONCAT(MID(C50,_xlfn.SEQUENCE(1,LEN(C50),LEN(C50),-1),1))</f>
@@ -21531,11 +21890,8 @@
       <c r="K50" s="40"/>
     </row>
     <row r="51" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C51" t="str">
-        <v>STOP</v>
-      </c>
-      <c r="D51" t="str">
-        <v>P</v>
+      <c r="C51" t="s">
+        <v>1035</v>
       </c>
       <c r="F51" t="str" cm="1">
         <f t="array" ref="F51">_xlfn.CONCAT(MID(C51,_xlfn.SEQUENCE(1,LEN(C51),LEN(C51),-1),1))</f>
@@ -21544,11 +21900,8 @@
       <c r="K51" s="40"/>
     </row>
     <row r="52" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C52" t="str">
-        <v>TGG</v>
-      </c>
-      <c r="D52" t="str">
-        <v>G</v>
+      <c r="C52" t="s">
+        <v>87</v>
       </c>
       <c r="F52" t="str" cm="1">
         <f t="array" ref="F52">_xlfn.CONCAT(MID(C52,_xlfn.SEQUENCE(1,LEN(C52),LEN(C52),-1),1))</f>
@@ -21557,11 +21910,8 @@
       <c r="K52" s="40"/>
     </row>
     <row r="53" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C53" t="str">
-        <v>Trp</v>
-      </c>
-      <c r="D53" t="str">
-        <v>p</v>
+      <c r="C53" t="s">
+        <v>1039</v>
       </c>
       <c r="F53" t="str" cm="1">
         <f t="array" ref="F53">_xlfn.CONCAT(MID(C53,_xlfn.SEQUENCE(1,LEN(C53),LEN(C53),-1),1))</f>
@@ -21570,11 +21920,8 @@
       <c r="K53" s="40"/>
     </row>
     <row r="54" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C54" t="str">
-        <v>CTT</v>
-      </c>
-      <c r="D54" t="str">
-        <v>T</v>
+      <c r="C54" t="s">
+        <v>1040</v>
       </c>
       <c r="F54" t="str" cm="1">
         <f t="array" ref="F54">_xlfn.CONCAT(MID(C54,_xlfn.SEQUENCE(1,LEN(C54),LEN(C54),-1),1))</f>
@@ -21583,11 +21930,8 @@
       <c r="K54" s="40"/>
     </row>
     <row r="55" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C55" t="str">
-        <v>Leu</v>
-      </c>
-      <c r="D55" t="str">
-        <v>u</v>
+      <c r="C55" t="s">
+        <v>1032</v>
       </c>
       <c r="F55" t="str" cm="1">
         <f t="array" ref="F55">_xlfn.CONCAT(MID(C55,_xlfn.SEQUENCE(1,LEN(C55),LEN(C55),-1),1))</f>
@@ -21596,11 +21940,8 @@
       <c r="K55" s="40"/>
     </row>
     <row r="56" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C56" t="str">
-        <v>CCT</v>
-      </c>
-      <c r="D56" t="str">
-        <v>T</v>
+      <c r="C56" t="s">
+        <v>1041</v>
       </c>
       <c r="F56" t="str" cm="1">
         <f t="array" ref="F56">_xlfn.CONCAT(MID(C56,_xlfn.SEQUENCE(1,LEN(C56),LEN(C56),-1),1))</f>
@@ -21609,11 +21950,8 @@
       <c r="K56" s="40"/>
     </row>
     <row r="57" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C57" t="str">
-        <v>Pro</v>
-      </c>
-      <c r="D57" t="str">
-        <v>o</v>
+      <c r="C57" t="s">
+        <v>1042</v>
       </c>
       <c r="F57" t="str" cm="1">
         <f t="array" ref="F57">_xlfn.CONCAT(MID(C57,_xlfn.SEQUENCE(1,LEN(C57),LEN(C57),-1),1))</f>
@@ -21622,11 +21960,8 @@
       <c r="K57" s="40"/>
     </row>
     <row r="58" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C58" t="str">
-        <v>CAT</v>
-      </c>
-      <c r="D58" t="str">
-        <v>T</v>
+      <c r="C58" t="s">
+        <v>1043</v>
       </c>
       <c r="F58" t="str" cm="1">
         <f t="array" ref="F58">_xlfn.CONCAT(MID(C58,_xlfn.SEQUENCE(1,LEN(C58),LEN(C58),-1),1))</f>
@@ -21635,11 +21970,8 @@
       <c r="K58" s="40"/>
     </row>
     <row r="59" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C59" t="str">
-        <v>His</v>
-      </c>
-      <c r="D59" t="str">
-        <v>s</v>
+      <c r="C59" t="s">
+        <v>1044</v>
       </c>
       <c r="F59" t="str" cm="1">
         <f t="array" ref="F59">_xlfn.CONCAT(MID(C59,_xlfn.SEQUENCE(1,LEN(C59),LEN(C59),-1),1))</f>
@@ -21648,11 +21980,8 @@
       <c r="K59" s="40"/>
     </row>
     <row r="60" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C60" t="str">
-        <v>CGT</v>
-      </c>
-      <c r="D60" t="str">
-        <v>T</v>
+      <c r="C60" t="s">
+        <v>1045</v>
       </c>
       <c r="F60" t="str" cm="1">
         <f t="array" ref="F60">_xlfn.CONCAT(MID(C60,_xlfn.SEQUENCE(1,LEN(C60),LEN(C60),-1),1))</f>
@@ -21661,11 +21990,8 @@
       <c r="K60" s="40"/>
     </row>
     <row r="61" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C61" t="str">
-        <v>Arg</v>
-      </c>
-      <c r="D61" t="str">
-        <v>g</v>
+      <c r="C61" t="s">
+        <v>1046</v>
       </c>
       <c r="F61" t="str" cm="1">
         <f t="array" ref="F61">_xlfn.CONCAT(MID(C61,_xlfn.SEQUENCE(1,LEN(C61),LEN(C61),-1),1))</f>
@@ -21674,11 +22000,8 @@
       <c r="K61" s="40"/>
     </row>
     <row r="62" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C62" t="str">
-        <v>CTC</v>
-      </c>
-      <c r="D62" t="str">
-        <v>C</v>
+      <c r="C62" t="s">
+        <v>1047</v>
       </c>
       <c r="F62" t="str" cm="1">
         <f t="array" ref="F62">_xlfn.CONCAT(MID(C62,_xlfn.SEQUENCE(1,LEN(C62),LEN(C62),-1),1))</f>
@@ -21687,11 +22010,8 @@
       <c r="K62" s="40"/>
     </row>
     <row r="63" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C63" t="str">
-        <v>Leu</v>
-      </c>
-      <c r="D63" t="str">
-        <v>u</v>
+      <c r="C63" t="s">
+        <v>1032</v>
       </c>
       <c r="F63" t="str" cm="1">
         <f t="array" ref="F63">_xlfn.CONCAT(MID(C63,_xlfn.SEQUENCE(1,LEN(C63),LEN(C63),-1),1))</f>
@@ -21700,11 +22020,8 @@
       <c r="K63" s="40"/>
     </row>
     <row r="64" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C64" t="str">
-        <v>CCC</v>
-      </c>
-      <c r="D64" t="str">
-        <v>C</v>
+      <c r="C64" t="s">
+        <v>60</v>
       </c>
       <c r="F64" t="str" cm="1">
         <f t="array" ref="F64">_xlfn.CONCAT(MID(C64,_xlfn.SEQUENCE(1,LEN(C64),LEN(C64),-1),1))</f>
@@ -21713,11 +22030,8 @@
       <c r="K64" s="40"/>
     </row>
     <row r="65" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C65" t="str">
-        <v>Pro</v>
-      </c>
-      <c r="D65" t="str">
-        <v>o</v>
+      <c r="C65" t="s">
+        <v>1042</v>
       </c>
       <c r="F65" t="str" cm="1">
         <f t="array" ref="F65">_xlfn.CONCAT(MID(C65,_xlfn.SEQUENCE(1,LEN(C65),LEN(C65),-1),1))</f>
@@ -21726,11 +22040,8 @@
       <c r="K65" s="40"/>
     </row>
     <row r="66" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C66" t="str">
-        <v>CAC</v>
-      </c>
-      <c r="D66" t="str">
-        <v>C</v>
+      <c r="C66" t="s">
+        <v>1048</v>
       </c>
       <c r="F66" t="str" cm="1">
         <f t="array" ref="F66">_xlfn.CONCAT(MID(C66,_xlfn.SEQUENCE(1,LEN(C66),LEN(C66),-1),1))</f>
@@ -21739,11 +22050,8 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C67" t="str">
-        <v>His</v>
-      </c>
-      <c r="D67" t="str">
-        <v>s</v>
+      <c r="C67" t="s">
+        <v>1044</v>
       </c>
       <c r="F67" t="str" cm="1">
         <f t="array" ref="F67">_xlfn.CONCAT(MID(C67,_xlfn.SEQUENCE(1,LEN(C67),LEN(C67),-1),1))</f>
@@ -21752,11 +22060,8 @@
       <c r="K67" s="40"/>
     </row>
     <row r="68" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C68" t="str">
-        <v>CGC</v>
-      </c>
-      <c r="D68" t="str">
-        <v>C</v>
+      <c r="C68" t="s">
+        <v>1049</v>
       </c>
       <c r="F68" t="str" cm="1">
         <f t="array" ref="F68">_xlfn.CONCAT(MID(C68,_xlfn.SEQUENCE(1,LEN(C68),LEN(C68),-1),1))</f>
@@ -21765,11 +22070,8 @@
       <c r="K68" s="40"/>
     </row>
     <row r="69" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C69" t="str">
-        <v>Arg</v>
-      </c>
-      <c r="D69" t="str">
-        <v>g</v>
+      <c r="C69" t="s">
+        <v>1046</v>
       </c>
       <c r="F69" t="str" cm="1">
         <f t="array" ref="F69">_xlfn.CONCAT(MID(C69,_xlfn.SEQUENCE(1,LEN(C69),LEN(C69),-1),1))</f>
@@ -21778,11 +22080,8 @@
       <c r="K69" s="40"/>
     </row>
     <row r="70" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C70" t="str">
-        <v>CTA</v>
-      </c>
-      <c r="D70" t="str">
-        <v>A</v>
+      <c r="C70" t="s">
+        <v>1050</v>
       </c>
       <c r="F70" t="str" cm="1">
         <f t="array" ref="F70">_xlfn.CONCAT(MID(C70,_xlfn.SEQUENCE(1,LEN(C70),LEN(C70),-1),1))</f>
@@ -21791,11 +22090,8 @@
       <c r="K70" s="40"/>
     </row>
     <row r="71" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C71" t="str">
-        <v>Leu</v>
-      </c>
-      <c r="D71" t="str">
-        <v>u</v>
+      <c r="C71" t="s">
+        <v>1032</v>
       </c>
       <c r="F71" t="str" cm="1">
         <f t="array" ref="F71">_xlfn.CONCAT(MID(C71,_xlfn.SEQUENCE(1,LEN(C71),LEN(C71),-1),1))</f>
@@ -21804,11 +22100,8 @@
       <c r="K71" s="40"/>
     </row>
     <row r="72" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C72" t="str">
-        <v>CCA</v>
-      </c>
-      <c r="D72" t="str">
-        <v>A</v>
+      <c r="C72" t="s">
+        <v>1051</v>
       </c>
       <c r="F72" t="str" cm="1">
         <f t="array" ref="F72">_xlfn.CONCAT(MID(C72,_xlfn.SEQUENCE(1,LEN(C72),LEN(C72),-1),1))</f>
@@ -21817,11 +22110,8 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C73" t="str">
-        <v>Pro</v>
-      </c>
-      <c r="D73" t="str">
-        <v>o</v>
+      <c r="C73" t="s">
+        <v>1042</v>
       </c>
       <c r="F73" t="str" cm="1">
         <f t="array" ref="F73">_xlfn.CONCAT(MID(C73,_xlfn.SEQUENCE(1,LEN(C73),LEN(C73),-1),1))</f>
@@ -21830,11 +22120,8 @@
       <c r="K73" s="40"/>
     </row>
     <row r="74" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C74" t="str">
-        <v>CAA</v>
-      </c>
-      <c r="D74" t="str">
-        <v>A</v>
+      <c r="C74" t="s">
+        <v>1052</v>
       </c>
       <c r="F74" t="str" cm="1">
         <f t="array" ref="F74">_xlfn.CONCAT(MID(C74,_xlfn.SEQUENCE(1,LEN(C74),LEN(C74),-1),1))</f>
@@ -21843,11 +22130,8 @@
       <c r="K74" s="40"/>
     </row>
     <row r="75" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C75" t="str">
-        <v>Gln</v>
-      </c>
-      <c r="D75" t="str">
-        <v>n</v>
+      <c r="C75" t="s">
+        <v>1053</v>
       </c>
       <c r="F75" t="str" cm="1">
         <f t="array" ref="F75">_xlfn.CONCAT(MID(C75,_xlfn.SEQUENCE(1,LEN(C75),LEN(C75),-1),1))</f>
@@ -21856,11 +22140,8 @@
       <c r="K75" s="40"/>
     </row>
     <row r="76" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C76" t="str">
-        <v>CGA</v>
-      </c>
-      <c r="D76" t="str">
-        <v>A</v>
+      <c r="C76" t="s">
+        <v>1054</v>
       </c>
       <c r="F76" t="str" cm="1">
         <f t="array" ref="F76">_xlfn.CONCAT(MID(C76,_xlfn.SEQUENCE(1,LEN(C76),LEN(C76),-1),1))</f>
@@ -21869,11 +22150,8 @@
       <c r="K76" s="40"/>
     </row>
     <row r="77" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C77" t="str">
-        <v>Arg</v>
-      </c>
-      <c r="D77" t="str">
-        <v>g</v>
+      <c r="C77" t="s">
+        <v>1046</v>
       </c>
       <c r="F77" t="str" cm="1">
         <f t="array" ref="F77">_xlfn.CONCAT(MID(C77,_xlfn.SEQUENCE(1,LEN(C77),LEN(C77),-1),1))</f>
@@ -21882,11 +22160,8 @@
       <c r="K77" s="40"/>
     </row>
     <row r="78" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C78" t="str">
-        <v>CTG</v>
-      </c>
-      <c r="D78" t="str">
-        <v>G</v>
+      <c r="C78" t="s">
+        <v>66</v>
       </c>
       <c r="F78" t="str" cm="1">
         <f t="array" ref="F78">_xlfn.CONCAT(MID(C78,_xlfn.SEQUENCE(1,LEN(C78),LEN(C78),-1),1))</f>
@@ -21895,11 +22170,8 @@
       <c r="K78" s="40"/>
     </row>
     <row r="79" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C79" t="str">
-        <v>Leu</v>
-      </c>
-      <c r="D79" t="str">
-        <v>u</v>
+      <c r="C79" t="s">
+        <v>1032</v>
       </c>
       <c r="F79" t="str" cm="1">
         <f t="array" ref="F79">_xlfn.CONCAT(MID(C79,_xlfn.SEQUENCE(1,LEN(C79),LEN(C79),-1),1))</f>
@@ -21908,11 +22180,8 @@
       <c r="K79" s="40"/>
     </row>
     <row r="80" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C80" t="str">
-        <v>CCG</v>
-      </c>
-      <c r="D80" t="str">
-        <v>G</v>
+      <c r="C80" t="s">
+        <v>62</v>
       </c>
       <c r="F80" t="str" cm="1">
         <f t="array" ref="F80">_xlfn.CONCAT(MID(C80,_xlfn.SEQUENCE(1,LEN(C80),LEN(C80),-1),1))</f>
@@ -21921,11 +22190,8 @@
       <c r="K80" s="40"/>
     </row>
     <row r="81" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C81" t="str">
-        <v>Pro</v>
-      </c>
-      <c r="D81" t="str">
-        <v>o</v>
+      <c r="C81" t="s">
+        <v>1042</v>
       </c>
       <c r="F81" t="str" cm="1">
         <f t="array" ref="F81">_xlfn.CONCAT(MID(C81,_xlfn.SEQUENCE(1,LEN(C81),LEN(C81),-1),1))</f>
@@ -21934,11 +22200,8 @@
       <c r="K81" s="40"/>
     </row>
     <row r="82" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C82" t="str">
-        <v>CAG</v>
-      </c>
-      <c r="D82" t="str">
-        <v>G</v>
+      <c r="C82" t="s">
+        <v>1055</v>
       </c>
       <c r="F82" t="str" cm="1">
         <f t="array" ref="F82">_xlfn.CONCAT(MID(C82,_xlfn.SEQUENCE(1,LEN(C82),LEN(C82),-1),1))</f>
@@ -21947,11 +22210,8 @@
       <c r="K82" s="40"/>
     </row>
     <row r="83" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C83" t="str">
-        <v>Gln</v>
-      </c>
-      <c r="D83" t="str">
-        <v>n</v>
+      <c r="C83" t="s">
+        <v>1053</v>
       </c>
       <c r="F83" t="str" cm="1">
         <f t="array" ref="F83">_xlfn.CONCAT(MID(C83,_xlfn.SEQUENCE(1,LEN(C83),LEN(C83),-1),1))</f>
@@ -21960,11 +22220,8 @@
       <c r="K83" s="40"/>
     </row>
     <row r="84" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C84" t="str">
-        <v>CGG</v>
-      </c>
-      <c r="D84" t="str">
-        <v>G</v>
+      <c r="C84" t="s">
+        <v>1056</v>
       </c>
       <c r="F84" t="str" cm="1">
         <f t="array" ref="F84">_xlfn.CONCAT(MID(C84,_xlfn.SEQUENCE(1,LEN(C84),LEN(C84),-1),1))</f>
@@ -21973,11 +22230,8 @@
       <c r="K84" s="40"/>
     </row>
     <row r="85" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C85" t="str">
-        <v>Arg</v>
-      </c>
-      <c r="D85" t="str">
-        <v>g</v>
+      <c r="C85" t="s">
+        <v>1046</v>
       </c>
       <c r="F85" t="str" cm="1">
         <f t="array" ref="F85">_xlfn.CONCAT(MID(C85,_xlfn.SEQUENCE(1,LEN(C85),LEN(C85),-1),1))</f>
@@ -21986,11 +22240,8 @@
       <c r="K85" s="40"/>
     </row>
     <row r="86" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C86" t="str">
-        <v>ATT</v>
-      </c>
-      <c r="D86" t="str">
-        <v>T</v>
+      <c r="C86" t="s">
+        <v>1057</v>
       </c>
       <c r="F86" t="str" cm="1">
         <f t="array" ref="F86">_xlfn.CONCAT(MID(C86,_xlfn.SEQUENCE(1,LEN(C86),LEN(C86),-1),1))</f>
@@ -21999,11 +22250,8 @@
       <c r="K86" s="40"/>
     </row>
     <row r="87" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C87" t="str">
-        <v>Ile</v>
-      </c>
-      <c r="D87" t="str">
-        <v>e</v>
+      <c r="C87" t="s">
+        <v>1058</v>
       </c>
       <c r="F87" t="str" cm="1">
         <f t="array" ref="F87">_xlfn.CONCAT(MID(C87,_xlfn.SEQUENCE(1,LEN(C87),LEN(C87),-1),1))</f>
@@ -22012,11 +22260,8 @@
       <c r="K87" s="40"/>
     </row>
     <row r="88" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C88" t="str">
-        <v>ACT</v>
-      </c>
-      <c r="D88" t="str">
-        <v>T</v>
+      <c r="C88" t="s">
+        <v>1059</v>
       </c>
       <c r="F88" t="str" cm="1">
         <f t="array" ref="F88">_xlfn.CONCAT(MID(C88,_xlfn.SEQUENCE(1,LEN(C88),LEN(C88),-1),1))</f>
@@ -22025,11 +22270,8 @@
       <c r="K88" s="40"/>
     </row>
     <row r="89" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C89" t="str">
-        <v>Thr</v>
-      </c>
-      <c r="D89" t="str">
-        <v>r</v>
+      <c r="C89" t="s">
+        <v>1060</v>
       </c>
       <c r="F89" t="str" cm="1">
         <f t="array" ref="F89">_xlfn.CONCAT(MID(C89,_xlfn.SEQUENCE(1,LEN(C89),LEN(C89),-1),1))</f>
@@ -22038,11 +22280,8 @@
       <c r="K89" s="40"/>
     </row>
     <row r="90" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C90" t="str">
-        <v>AAT</v>
-      </c>
-      <c r="D90" t="str">
-        <v>T</v>
+      <c r="C90" t="s">
+        <v>1061</v>
       </c>
       <c r="F90" t="str" cm="1">
         <f t="array" ref="F90">_xlfn.CONCAT(MID(C90,_xlfn.SEQUENCE(1,LEN(C90),LEN(C90),-1),1))</f>
@@ -22051,11 +22290,8 @@
       <c r="K90" s="40"/>
     </row>
     <row r="91" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C91" t="str">
-        <v>Asn</v>
-      </c>
-      <c r="D91" t="str">
-        <v>n</v>
+      <c r="C91" t="s">
+        <v>1062</v>
       </c>
       <c r="F91" t="str" cm="1">
         <f t="array" ref="F91">_xlfn.CONCAT(MID(C91,_xlfn.SEQUENCE(1,LEN(C91),LEN(C91),-1),1))</f>
@@ -22064,11 +22300,8 @@
       <c r="K91" s="40"/>
     </row>
     <row r="92" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C92" t="str">
-        <v>AGT</v>
-      </c>
-      <c r="D92" t="str">
-        <v>T</v>
+      <c r="C92" t="s">
+        <v>1063</v>
       </c>
       <c r="F92" t="str" cm="1">
         <f t="array" ref="F92">_xlfn.CONCAT(MID(C92,_xlfn.SEQUENCE(1,LEN(C92),LEN(C92),-1),1))</f>
@@ -22077,11 +22310,8 @@
       <c r="K92" s="40"/>
     </row>
     <row r="93" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C93" t="str">
-        <v>Ser</v>
-      </c>
-      <c r="D93" t="str">
-        <v>r</v>
+      <c r="C93" t="s">
+        <v>1023</v>
       </c>
       <c r="F93" t="str" cm="1">
         <f t="array" ref="F93">_xlfn.CONCAT(MID(C93,_xlfn.SEQUENCE(1,LEN(C93),LEN(C93),-1),1))</f>
@@ -22090,11 +22320,8 @@
       <c r="K93" s="40"/>
     </row>
     <row r="94" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C94" t="str">
-        <v>ATC</v>
-      </c>
-      <c r="D94" t="str">
-        <v>C</v>
+      <c r="C94" t="s">
+        <v>1064</v>
       </c>
       <c r="F94" t="str" cm="1">
         <f t="array" ref="F94">_xlfn.CONCAT(MID(C94,_xlfn.SEQUENCE(1,LEN(C94),LEN(C94),-1),1))</f>
@@ -22103,11 +22330,8 @@
       <c r="K94" s="40"/>
     </row>
     <row r="95" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C95" t="str">
-        <v>Ile</v>
-      </c>
-      <c r="D95" t="str">
-        <v>e</v>
+      <c r="C95" t="s">
+        <v>1058</v>
       </c>
       <c r="F95" t="str" cm="1">
         <f t="array" ref="F95">_xlfn.CONCAT(MID(C95,_xlfn.SEQUENCE(1,LEN(C95),LEN(C95),-1),1))</f>
@@ -22116,11 +22340,8 @@
       <c r="K95" s="40"/>
     </row>
     <row r="96" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C96" t="str">
-        <v>ACC</v>
-      </c>
-      <c r="D96" t="str">
-        <v>C</v>
+      <c r="C96" t="s">
+        <v>70</v>
       </c>
       <c r="F96" t="str" cm="1">
         <f t="array" ref="F96">_xlfn.CONCAT(MID(C96,_xlfn.SEQUENCE(1,LEN(C96),LEN(C96),-1),1))</f>
@@ -22129,11 +22350,8 @@
       <c r="K96" s="40"/>
     </row>
     <row r="97" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C97" t="str">
-        <v>Thr</v>
-      </c>
-      <c r="D97" t="str">
-        <v>r</v>
+      <c r="C97" t="s">
+        <v>1060</v>
       </c>
       <c r="F97" t="str" cm="1">
         <f t="array" ref="F97">_xlfn.CONCAT(MID(C97,_xlfn.SEQUENCE(1,LEN(C97),LEN(C97),-1),1))</f>
@@ -22142,11 +22360,8 @@
       <c r="K97" s="40"/>
     </row>
     <row r="98" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C98" t="str">
-        <v>AAC</v>
-      </c>
-      <c r="D98" t="str">
-        <v>C</v>
+      <c r="C98" t="s">
+        <v>1065</v>
       </c>
       <c r="F98" t="str" cm="1">
         <f t="array" ref="F98">_xlfn.CONCAT(MID(C98,_xlfn.SEQUENCE(1,LEN(C98),LEN(C98),-1),1))</f>
@@ -22155,11 +22370,8 @@
       <c r="K98" s="40"/>
     </row>
     <row r="99" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C99" t="str">
-        <v>Asn</v>
-      </c>
-      <c r="D99" t="str">
-        <v>n</v>
+      <c r="C99" t="s">
+        <v>1062</v>
       </c>
       <c r="F99" t="str" cm="1">
         <f t="array" ref="F99">_xlfn.CONCAT(MID(C99,_xlfn.SEQUENCE(1,LEN(C99),LEN(C99),-1),1))</f>
@@ -22168,11 +22380,8 @@
       <c r="K99" s="40"/>
     </row>
     <row r="100" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C100" t="str">
-        <v>AGC</v>
-      </c>
-      <c r="D100" t="str">
-        <v>C</v>
+      <c r="C100" t="s">
+        <v>1066</v>
       </c>
       <c r="F100" t="str" cm="1">
         <f t="array" ref="F100">_xlfn.CONCAT(MID(C100,_xlfn.SEQUENCE(1,LEN(C100),LEN(C100),-1),1))</f>
@@ -22181,11 +22390,8 @@
       <c r="K100" s="40"/>
     </row>
     <row r="101" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C101" t="str">
-        <v>Ser</v>
-      </c>
-      <c r="D101" t="str">
-        <v>r</v>
+      <c r="C101" t="s">
+        <v>1023</v>
       </c>
       <c r="F101" t="str" cm="1">
         <f t="array" ref="F101">_xlfn.CONCAT(MID(C101,_xlfn.SEQUENCE(1,LEN(C101),LEN(C101),-1),1))</f>
@@ -22194,11 +22400,8 @@
       <c r="K101" s="40"/>
     </row>
     <row r="102" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C102" t="str">
-        <v>ATA</v>
-      </c>
-      <c r="D102" t="str">
-        <v>A</v>
+      <c r="C102" t="s">
+        <v>1067</v>
       </c>
       <c r="F102" t="str" cm="1">
         <f t="array" ref="F102">_xlfn.CONCAT(MID(C102,_xlfn.SEQUENCE(1,LEN(C102),LEN(C102),-1),1))</f>
@@ -22207,11 +22410,8 @@
       <c r="K102" s="40"/>
     </row>
     <row r="103" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C103" t="str">
-        <v>Ile</v>
-      </c>
-      <c r="D103" t="str">
-        <v>e</v>
+      <c r="C103" t="s">
+        <v>1058</v>
       </c>
       <c r="F103" t="str" cm="1">
         <f t="array" ref="F103">_xlfn.CONCAT(MID(C103,_xlfn.SEQUENCE(1,LEN(C103),LEN(C103),-1),1))</f>
@@ -22220,11 +22420,8 @@
       <c r="K103" s="40"/>
     </row>
     <row r="104" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C104" t="str">
-        <v>ACA</v>
-      </c>
-      <c r="D104" t="str">
-        <v>A</v>
+      <c r="C104" t="s">
+        <v>1068</v>
       </c>
       <c r="F104" t="str" cm="1">
         <f t="array" ref="F104">_xlfn.CONCAT(MID(C104,_xlfn.SEQUENCE(1,LEN(C104),LEN(C104),-1),1))</f>
@@ -22233,11 +22430,8 @@
       <c r="K104" s="40"/>
     </row>
     <row r="105" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C105" t="str">
-        <v>Thr</v>
-      </c>
-      <c r="D105" t="str">
-        <v>r</v>
+      <c r="C105" t="s">
+        <v>1060</v>
       </c>
       <c r="F105" t="str" cm="1">
         <f t="array" ref="F105">_xlfn.CONCAT(MID(C105,_xlfn.SEQUENCE(1,LEN(C105),LEN(C105),-1),1))</f>
@@ -22246,11 +22440,8 @@
       <c r="K105" s="40"/>
     </row>
     <row r="106" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C106" t="str">
-        <v>AAA</v>
-      </c>
-      <c r="D106" t="str">
-        <v>A</v>
+      <c r="C106" t="s">
+        <v>1069</v>
       </c>
       <c r="F106" t="str" cm="1">
         <f t="array" ref="F106">_xlfn.CONCAT(MID(C106,_xlfn.SEQUENCE(1,LEN(C106),LEN(C106),-1),1))</f>
@@ -22259,11 +22450,8 @@
       <c r="K106" s="40"/>
     </row>
     <row r="107" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C107" t="str">
-        <v>Lys</v>
-      </c>
-      <c r="D107" t="str">
-        <v>s</v>
+      <c r="C107" t="s">
+        <v>1070</v>
       </c>
       <c r="F107" t="str" cm="1">
         <f t="array" ref="F107">_xlfn.CONCAT(MID(C107,_xlfn.SEQUENCE(1,LEN(C107),LEN(C107),-1),1))</f>
@@ -22272,11 +22460,8 @@
       <c r="K107" s="40"/>
     </row>
     <row r="108" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C108" t="str">
-        <v>AGA</v>
-      </c>
-      <c r="D108" t="str">
-        <v>A</v>
+      <c r="C108" t="s">
+        <v>1071</v>
       </c>
       <c r="F108" t="str" cm="1">
         <f t="array" ref="F108">_xlfn.CONCAT(MID(C108,_xlfn.SEQUENCE(1,LEN(C108),LEN(C108),-1),1))</f>
@@ -22285,11 +22470,8 @@
       <c r="K108" s="40"/>
     </row>
     <row r="109" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C109" t="str">
-        <v>Arg</v>
-      </c>
-      <c r="D109" t="str">
-        <v>g</v>
+      <c r="C109" t="s">
+        <v>1046</v>
       </c>
       <c r="F109" t="str" cm="1">
         <f t="array" ref="F109">_xlfn.CONCAT(MID(C109,_xlfn.SEQUENCE(1,LEN(C109),LEN(C109),-1),1))</f>
@@ -22298,11 +22480,8 @@
       <c r="K109" s="40"/>
     </row>
     <row r="110" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C110" t="str">
-        <v>ATG</v>
-      </c>
-      <c r="D110" t="str">
-        <v>G</v>
+      <c r="C110" t="s">
+        <v>1072</v>
       </c>
       <c r="F110" t="str" cm="1">
         <f t="array" ref="F110">_xlfn.CONCAT(MID(C110,_xlfn.SEQUENCE(1,LEN(C110),LEN(C110),-1),1))</f>
@@ -22311,11 +22490,8 @@
       <c r="K110" s="40"/>
     </row>
     <row r="111" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C111" t="str">
-        <v>Met</v>
-      </c>
-      <c r="D111" t="str">
-        <v>t</v>
+      <c r="C111" t="s">
+        <v>1073</v>
       </c>
       <c r="F111" t="str" cm="1">
         <f t="array" ref="F111">_xlfn.CONCAT(MID(C111,_xlfn.SEQUENCE(1,LEN(C111),LEN(C111),-1),1))</f>
@@ -22324,11 +22500,8 @@
       <c r="K111" s="40"/>
     </row>
     <row r="112" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C112" t="str">
-        <v>ACG</v>
-      </c>
-      <c r="D112" t="str">
-        <v>G</v>
+      <c r="C112" t="s">
+        <v>1074</v>
       </c>
       <c r="F112" t="str" cm="1">
         <f t="array" ref="F112">_xlfn.CONCAT(MID(C112,_xlfn.SEQUENCE(1,LEN(C112),LEN(C112),-1),1))</f>
@@ -22337,11 +22510,8 @@
       <c r="K112" s="40"/>
     </row>
     <row r="113" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C113" t="str">
-        <v>Thr</v>
-      </c>
-      <c r="D113" t="str">
-        <v>r</v>
+      <c r="C113" t="s">
+        <v>1060</v>
       </c>
       <c r="F113" t="str" cm="1">
         <f t="array" ref="F113">_xlfn.CONCAT(MID(C113,_xlfn.SEQUENCE(1,LEN(C113),LEN(C113),-1),1))</f>
@@ -22350,11 +22520,8 @@
       <c r="K113" s="40"/>
     </row>
     <row r="114" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C114" t="str">
-        <v>AAG</v>
-      </c>
-      <c r="D114" t="str">
-        <v>G</v>
+      <c r="C114" t="s">
+        <v>56</v>
       </c>
       <c r="F114" t="str" cm="1">
         <f t="array" ref="F114">_xlfn.CONCAT(MID(C114,_xlfn.SEQUENCE(1,LEN(C114),LEN(C114),-1),1))</f>
@@ -22363,11 +22530,8 @@
       <c r="K114" s="40"/>
     </row>
     <row r="115" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C115" t="str">
-        <v>Lys</v>
-      </c>
-      <c r="D115" t="str">
-        <v>s</v>
+      <c r="C115" t="s">
+        <v>1070</v>
       </c>
       <c r="F115" t="str" cm="1">
         <f t="array" ref="F115">_xlfn.CONCAT(MID(C115,_xlfn.SEQUENCE(1,LEN(C115),LEN(C115),-1),1))</f>
@@ -22376,11 +22540,8 @@
       <c r="K115" s="40"/>
     </row>
     <row r="116" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C116" t="str">
-        <v>AGG</v>
-      </c>
-      <c r="D116" t="str">
-        <v>G</v>
+      <c r="C116" t="s">
+        <v>1075</v>
       </c>
       <c r="F116" t="str" cm="1">
         <f t="array" ref="F116">_xlfn.CONCAT(MID(C116,_xlfn.SEQUENCE(1,LEN(C116),LEN(C116),-1),1))</f>
@@ -22389,11 +22550,8 @@
       <c r="K116" s="40"/>
     </row>
     <row r="117" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C117" t="str">
-        <v>Arg</v>
-      </c>
-      <c r="D117" t="str">
-        <v>g</v>
+      <c r="C117" t="s">
+        <v>1046</v>
       </c>
       <c r="F117" t="str" cm="1">
         <f t="array" ref="F117">_xlfn.CONCAT(MID(C117,_xlfn.SEQUENCE(1,LEN(C117),LEN(C117),-1),1))</f>
@@ -22402,11 +22560,8 @@
       <c r="K117" s="40"/>
     </row>
     <row r="118" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C118" t="str">
-        <v>GTT</v>
-      </c>
-      <c r="D118" t="str">
-        <v>T</v>
+      <c r="C118" t="s">
+        <v>1076</v>
       </c>
       <c r="F118" t="str" cm="1">
         <f t="array" ref="F118">_xlfn.CONCAT(MID(C118,_xlfn.SEQUENCE(1,LEN(C118),LEN(C118),-1),1))</f>
@@ -22415,11 +22570,8 @@
       <c r="K118" s="40"/>
     </row>
     <row r="119" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C119" t="str">
-        <v>Val</v>
-      </c>
-      <c r="D119" t="str">
-        <v>l</v>
+      <c r="C119" t="s">
+        <v>1077</v>
       </c>
       <c r="F119" t="str" cm="1">
         <f t="array" ref="F119">_xlfn.CONCAT(MID(C119,_xlfn.SEQUENCE(1,LEN(C119),LEN(C119),-1),1))</f>
@@ -22428,11 +22580,8 @@
       <c r="K119" s="40"/>
     </row>
     <row r="120" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C120" t="str">
-        <v>GCT</v>
-      </c>
-      <c r="D120" t="str">
-        <v>T</v>
+      <c r="C120" t="s">
+        <v>1078</v>
       </c>
       <c r="F120" t="str" cm="1">
         <f t="array" ref="F120">_xlfn.CONCAT(MID(C120,_xlfn.SEQUENCE(1,LEN(C120),LEN(C120),-1),1))</f>
@@ -22441,11 +22590,8 @@
       <c r="K120" s="40"/>
     </row>
     <row r="121" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C121" t="str">
-        <v>Ala</v>
-      </c>
-      <c r="D121" t="str">
-        <v>a</v>
+      <c r="C121" t="s">
+        <v>1079</v>
       </c>
       <c r="F121" t="str" cm="1">
         <f t="array" ref="F121">_xlfn.CONCAT(MID(C121,_xlfn.SEQUENCE(1,LEN(C121),LEN(C121),-1),1))</f>
@@ -22454,11 +22600,8 @@
       <c r="K121" s="40"/>
     </row>
     <row r="122" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C122" t="str">
-        <v>GAT</v>
-      </c>
-      <c r="D122" t="str">
-        <v>T</v>
+      <c r="C122" t="s">
+        <v>1080</v>
       </c>
       <c r="F122" t="str" cm="1">
         <f t="array" ref="F122">_xlfn.CONCAT(MID(C122,_xlfn.SEQUENCE(1,LEN(C122),LEN(C122),-1),1))</f>
@@ -22467,11 +22610,8 @@
       <c r="K122" s="40"/>
     </row>
     <row r="123" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C123" t="str">
-        <v>Asp</v>
-      </c>
-      <c r="D123" t="str">
-        <v>p</v>
+      <c r="C123" t="s">
+        <v>1081</v>
       </c>
       <c r="F123" t="str" cm="1">
         <f t="array" ref="F123">_xlfn.CONCAT(MID(C123,_xlfn.SEQUENCE(1,LEN(C123),LEN(C123),-1),1))</f>
@@ -22480,11 +22620,8 @@
       <c r="K123" s="40"/>
     </row>
     <row r="124" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C124" t="str">
-        <v>GGT</v>
-      </c>
-      <c r="D124" t="str">
-        <v>T</v>
+      <c r="C124" t="s">
+        <v>1082</v>
       </c>
       <c r="F124" t="str" cm="1">
         <f t="array" ref="F124">_xlfn.CONCAT(MID(C124,_xlfn.SEQUENCE(1,LEN(C124),LEN(C124),-1),1))</f>
@@ -22493,11 +22630,8 @@
       <c r="K124" s="40"/>
     </row>
     <row r="125" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C125" t="str">
-        <v>Gly</v>
-      </c>
-      <c r="D125" t="str">
-        <v>y</v>
+      <c r="C125" t="s">
+        <v>1083</v>
       </c>
       <c r="F125" t="str" cm="1">
         <f t="array" ref="F125">_xlfn.CONCAT(MID(C125,_xlfn.SEQUENCE(1,LEN(C125),LEN(C125),-1),1))</f>
@@ -22506,11 +22640,8 @@
       <c r="K125" s="40"/>
     </row>
     <row r="126" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C126" t="str">
-        <v>GTC</v>
-      </c>
-      <c r="D126" t="str">
-        <v>C</v>
+      <c r="C126" t="s">
+        <v>1084</v>
       </c>
       <c r="F126" t="str" cm="1">
         <f t="array" ref="F126">_xlfn.CONCAT(MID(C126,_xlfn.SEQUENCE(1,LEN(C126),LEN(C126),-1),1))</f>
@@ -22519,11 +22650,8 @@
       <c r="K126" s="40"/>
     </row>
     <row r="127" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C127" t="str">
-        <v>Val</v>
-      </c>
-      <c r="D127" t="str">
-        <v>l</v>
+      <c r="C127" t="s">
+        <v>1077</v>
       </c>
       <c r="F127" t="str" cm="1">
         <f t="array" ref="F127">_xlfn.CONCAT(MID(C127,_xlfn.SEQUENCE(1,LEN(C127),LEN(C127),-1),1))</f>
@@ -22532,11 +22660,8 @@
       <c r="K127" s="40"/>
     </row>
     <row r="128" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C128" t="str">
-        <v>GCC</v>
-      </c>
-      <c r="D128" t="str">
-        <v>C</v>
+      <c r="C128" t="s">
+        <v>72</v>
       </c>
       <c r="F128" t="str" cm="1">
         <f t="array" ref="F128">_xlfn.CONCAT(MID(C128,_xlfn.SEQUENCE(1,LEN(C128),LEN(C128),-1),1))</f>
@@ -22545,11 +22670,8 @@
       <c r="K128" s="40"/>
     </row>
     <row r="129" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C129" t="str">
-        <v>Ala</v>
-      </c>
-      <c r="D129" t="str">
-        <v>a</v>
+      <c r="C129" t="s">
+        <v>1079</v>
       </c>
       <c r="F129" t="str" cm="1">
         <f t="array" ref="F129">_xlfn.CONCAT(MID(C129,_xlfn.SEQUENCE(1,LEN(C129),LEN(C129),-1),1))</f>
@@ -22558,11 +22680,8 @@
       <c r="K129" s="40"/>
     </row>
     <row r="130" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C130" t="str">
-        <v>GAC</v>
-      </c>
-      <c r="D130" t="str">
-        <v>C</v>
+      <c r="C130" t="s">
+        <v>1085</v>
       </c>
       <c r="F130" t="str" cm="1">
         <f t="array" ref="F130">_xlfn.CONCAT(MID(C130,_xlfn.SEQUENCE(1,LEN(C130),LEN(C130),-1),1))</f>
@@ -22571,11 +22690,8 @@
       <c r="K130" s="40"/>
     </row>
     <row r="131" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C131" t="str">
-        <v>Asp</v>
-      </c>
-      <c r="D131" t="str">
-        <v>p</v>
+      <c r="C131" t="s">
+        <v>1081</v>
       </c>
       <c r="F131" t="str" cm="1">
         <f t="array" ref="F131">_xlfn.CONCAT(MID(C131,_xlfn.SEQUENCE(1,LEN(C131),LEN(C131),-1),1))</f>
@@ -22584,11 +22700,8 @@
       <c r="K131" s="40"/>
     </row>
     <row r="132" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C132" t="str">
-        <v>GGC</v>
-      </c>
-      <c r="D132" t="str">
-        <v>C</v>
+      <c r="C132" t="s">
+        <v>1086</v>
       </c>
       <c r="F132" t="str" cm="1">
         <f t="array" ref="F132">_xlfn.CONCAT(MID(C132,_xlfn.SEQUENCE(1,LEN(C132),LEN(C132),-1),1))</f>
@@ -22597,11 +22710,8 @@
       <c r="K132" s="40"/>
     </row>
     <row r="133" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C133" t="str">
-        <v>Gly</v>
-      </c>
-      <c r="D133" t="str">
-        <v>y</v>
+      <c r="C133" t="s">
+        <v>1083</v>
       </c>
       <c r="F133" t="str" cm="1">
         <f t="array" ref="F133">_xlfn.CONCAT(MID(C133,_xlfn.SEQUENCE(1,LEN(C133),LEN(C133),-1),1))</f>
@@ -22610,11 +22720,8 @@
       <c r="K133" s="40"/>
     </row>
     <row r="134" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C134" t="str">
-        <v>GTA</v>
-      </c>
-      <c r="D134" t="str">
-        <v>A</v>
+      <c r="C134" t="s">
+        <v>1087</v>
       </c>
       <c r="F134" t="str" cm="1">
         <f t="array" ref="F134">_xlfn.CONCAT(MID(C134,_xlfn.SEQUENCE(1,LEN(C134),LEN(C134),-1),1))</f>
@@ -22623,11 +22730,8 @@
       <c r="K134" s="40"/>
     </row>
     <row r="135" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C135" t="str">
-        <v>Val</v>
-      </c>
-      <c r="D135" t="str">
-        <v>l</v>
+      <c r="C135" t="s">
+        <v>1077</v>
       </c>
       <c r="F135" t="str" cm="1">
         <f t="array" ref="F135">_xlfn.CONCAT(MID(C135,_xlfn.SEQUENCE(1,LEN(C135),LEN(C135),-1),1))</f>
@@ -22636,11 +22740,8 @@
       <c r="K135" s="40"/>
     </row>
     <row r="136" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C136" t="str">
-        <v>GCA</v>
-      </c>
-      <c r="D136" t="str">
-        <v>A</v>
+      <c r="C136" t="s">
+        <v>1088</v>
       </c>
       <c r="F136" t="str" cm="1">
         <f t="array" ref="F136">_xlfn.CONCAT(MID(C136,_xlfn.SEQUENCE(1,LEN(C136),LEN(C136),-1),1))</f>
@@ -22649,11 +22750,8 @@
       <c r="K136" s="40"/>
     </row>
     <row r="137" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C137" t="str">
-        <v>Ala</v>
-      </c>
-      <c r="D137" t="str">
-        <v>a</v>
+      <c r="C137" t="s">
+        <v>1079</v>
       </c>
       <c r="F137" t="str" cm="1">
         <f t="array" ref="F137">_xlfn.CONCAT(MID(C137,_xlfn.SEQUENCE(1,LEN(C137),LEN(C137),-1),1))</f>
@@ -22662,11 +22760,8 @@
       <c r="K137" s="40"/>
     </row>
     <row r="138" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C138" t="str">
-        <v>GAA</v>
-      </c>
-      <c r="D138" t="str">
-        <v>A</v>
+      <c r="C138" t="s">
+        <v>1089</v>
       </c>
       <c r="F138" t="str" cm="1">
         <f t="array" ref="F138">_xlfn.CONCAT(MID(C138,_xlfn.SEQUENCE(1,LEN(C138),LEN(C138),-1),1))</f>
@@ -22675,11 +22770,8 @@
       <c r="K138" s="40"/>
     </row>
     <row r="139" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C139" t="str">
-        <v>Glu</v>
-      </c>
-      <c r="D139" t="str">
-        <v>u</v>
+      <c r="C139" t="s">
+        <v>1090</v>
       </c>
       <c r="F139" t="str" cm="1">
         <f t="array" ref="F139">_xlfn.CONCAT(MID(C139,_xlfn.SEQUENCE(1,LEN(C139),LEN(C139),-1),1))</f>
@@ -22688,11 +22780,8 @@
       <c r="K139" s="40"/>
     </row>
     <row r="140" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C140" t="str">
-        <v>GGA</v>
-      </c>
-      <c r="D140" t="str">
-        <v>A</v>
+      <c r="C140" t="s">
+        <v>1091</v>
       </c>
       <c r="F140" t="str" cm="1">
         <f t="array" ref="F140">_xlfn.CONCAT(MID(C140,_xlfn.SEQUENCE(1,LEN(C140),LEN(C140),-1),1))</f>
@@ -22701,11 +22790,8 @@
       <c r="K140" s="40"/>
     </row>
     <row r="141" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C141" t="str">
-        <v>Gly</v>
-      </c>
-      <c r="D141" t="str">
-        <v>y</v>
+      <c r="C141" t="s">
+        <v>1083</v>
       </c>
       <c r="F141" t="str" cm="1">
         <f t="array" ref="F141">_xlfn.CONCAT(MID(C141,_xlfn.SEQUENCE(1,LEN(C141),LEN(C141),-1),1))</f>
@@ -22714,11 +22800,8 @@
       <c r="K141" s="40"/>
     </row>
     <row r="142" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C142" t="str">
-        <v>GTG</v>
-      </c>
-      <c r="D142" t="str">
-        <v>G</v>
+      <c r="C142" t="s">
+        <v>1092</v>
       </c>
       <c r="F142" t="str" cm="1">
         <f t="array" ref="F142">_xlfn.CONCAT(MID(C142,_xlfn.SEQUENCE(1,LEN(C142),LEN(C142),-1),1))</f>
@@ -22727,11 +22810,8 @@
       <c r="K142" s="40"/>
     </row>
     <row r="143" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C143" t="str">
-        <v>Val</v>
-      </c>
-      <c r="D143" t="str">
-        <v>l</v>
+      <c r="C143" t="s">
+        <v>1077</v>
       </c>
       <c r="F143" t="str" cm="1">
         <f t="array" ref="F143">_xlfn.CONCAT(MID(C143,_xlfn.SEQUENCE(1,LEN(C143),LEN(C143),-1),1))</f>
@@ -22740,11 +22820,8 @@
       <c r="K143" s="40"/>
     </row>
     <row r="144" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C144" t="str">
-        <v>GCG</v>
-      </c>
-      <c r="D144" t="str">
-        <v>G</v>
+      <c r="C144" t="s">
+        <v>1093</v>
       </c>
       <c r="F144" t="str" cm="1">
         <f t="array" ref="F144">_xlfn.CONCAT(MID(C144,_xlfn.SEQUENCE(1,LEN(C144),LEN(C144),-1),1))</f>
@@ -22753,11 +22830,8 @@
       <c r="K144" s="40"/>
     </row>
     <row r="145" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C145" t="str">
-        <v>Ala</v>
-      </c>
-      <c r="D145" t="str">
-        <v>a</v>
+      <c r="C145" t="s">
+        <v>1079</v>
       </c>
       <c r="F145" t="str" cm="1">
         <f t="array" ref="F145">_xlfn.CONCAT(MID(C145,_xlfn.SEQUENCE(1,LEN(C145),LEN(C145),-1),1))</f>
@@ -22766,11 +22840,8 @@
       <c r="K145" s="40"/>
     </row>
     <row r="146" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C146" t="str">
-        <v>GAG</v>
-      </c>
-      <c r="D146" t="str">
-        <v>G</v>
+      <c r="C146" t="s">
+        <v>1094</v>
       </c>
       <c r="F146" t="str" cm="1">
         <f t="array" ref="F146">_xlfn.CONCAT(MID(C146,_xlfn.SEQUENCE(1,LEN(C146),LEN(C146),-1),1))</f>
@@ -22779,11 +22850,8 @@
       <c r="K146" s="40"/>
     </row>
     <row r="147" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C147" t="str">
-        <v>Glu</v>
-      </c>
-      <c r="D147" t="str">
-        <v>u</v>
+      <c r="C147" t="s">
+        <v>1090</v>
       </c>
       <c r="F147" t="str" cm="1">
         <f t="array" ref="F147">_xlfn.CONCAT(MID(C147,_xlfn.SEQUENCE(1,LEN(C147),LEN(C147),-1),1))</f>
@@ -22792,11 +22860,8 @@
       <c r="K147" s="40"/>
     </row>
     <row r="148" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C148" t="str">
-        <v>GGG</v>
-      </c>
-      <c r="D148" t="str">
-        <v>G</v>
+      <c r="C148" t="s">
+        <v>58</v>
       </c>
       <c r="F148" t="str" cm="1">
         <f t="array" ref="F148">_xlfn.CONCAT(MID(C148,_xlfn.SEQUENCE(1,LEN(C148),LEN(C148),-1),1))</f>
@@ -22805,11 +22870,8 @@
       <c r="K148" s="40"/>
     </row>
     <row r="149" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C149" t="str">
-        <v>Gly</v>
-      </c>
-      <c r="D149" t="str">
-        <v>y</v>
+      <c r="C149" t="s">
+        <v>1083</v>
       </c>
       <c r="F149" t="str" cm="1">
         <f t="array" ref="F149">_xlfn.CONCAT(MID(C149,_xlfn.SEQUENCE(1,LEN(C149),LEN(C149),-1),1))</f>
@@ -25372,17 +25434,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -25396,7 +25458,9 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -25432,50 +25496,50 @@
     </row>
     <row r="2" spans="1:12" ht="60.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="168" t="s">
         <v>1095</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="166"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="169"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="178"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="172"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="157" t="s">
+      <c r="J4" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="158"/>
+      <c r="K4" s="159"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="21" customHeight="1">
@@ -25508,146 +25572,146 @@
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="174" t="s">
         <v>1096</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="176"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="26.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="170"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="163"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="170"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="163"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="26.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="170"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="163"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="170"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="163"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="26.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="170"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="26.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="170"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="26.25" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="170"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="163"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="26.25" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="172"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="165"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="23.25" customHeight="1">
@@ -25666,18 +25730,18 @@
     </row>
     <row r="18" spans="1:12" ht="25.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
@@ -25739,13 +25803,13 @@
         <v>11</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="159" t="s">
+      <c r="G22" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="161"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="181"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="33" customHeight="1">
@@ -25766,13 +25830,13 @@
         <f>IF(ISBLANK(E23),0,IF(E23=Answers!E23,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G23" s="162" t="s">
+      <c r="G23" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="164"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="184"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="33" customHeight="1">
@@ -25793,13 +25857,13 @@
         <f>IF(ISBLANK(E24),0,IF(E24=Answers!E24,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G24" s="165" t="s">
+      <c r="G24" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="166"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="169"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="33" customHeight="1">
@@ -25820,13 +25884,13 @@
         <f>IF(ISBLANK(E25),0,IF(E25=Answers!E25,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G25" s="165" t="s">
+      <c r="G25" s="185" t="s">
         <v>1097</v>
       </c>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="166"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="169"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1">
@@ -25889,10 +25953,10 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="157" t="s">
+      <c r="J29" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="158"/>
+      <c r="K29" s="159"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
@@ -25905,11 +25969,11 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="167">
+      <c r="J30" s="160">
         <f t="array" ref="J30">SUMPRODUCT(--($F$23:$F$242=1),$D$23:$D$242)</f>
         <v>1000</v>
       </c>
-      <c r="K30" s="168"/>
+      <c r="K30" s="161"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
@@ -25924,8 +25988,8 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="170"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="163"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
@@ -25940,8 +26004,8 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="172"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="165"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
@@ -27460,8 +27524,8 @@
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="173"/>
-      <c r="H110" s="174"/>
+      <c r="G110" s="166"/>
+      <c r="H110" s="167"/>
     </row>
     <row r="111" spans="1:8" ht="14.25" customHeight="1">
       <c r="A111" s="1"/>

--- a/Excel Esports Sequencing Leeloo - old.xlsx
+++ b/Excel Esports Sequencing Leeloo - old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325EA2F9-15EF-4FEA-8BA4-468A874C1120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9CC118-804F-4690-918A-1696297B8C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1104">
   <si>
     <t>Test Case</t>
   </si>
@@ -6266,6 +6266,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6281,21 +6296,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6324,9 +6324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1655054</xdr:colOff>
+      <xdr:colOff>1123559</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>129629</xdr:rowOff>
+      <xdr:rowOff>133439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6683,8 +6683,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120:E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -6698,7 +6698,8 @@
     <col min="7" max="7" width="27.09765625" customWidth="1"/>
     <col min="8" max="8" width="91.69921875" customWidth="1"/>
     <col min="9" max="9" width="6.296875" customWidth="1"/>
-    <col min="10" max="11" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" customWidth="1"/>
     <col min="12" max="12" width="83.09765625" customWidth="1"/>
     <col min="13" max="13" width="81.3984375" customWidth="1"/>
     <col min="14" max="14" width="7.69921875" customWidth="1"/>
@@ -7195,7 +7196,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="160">
         <f t="array" ref="J30">SUMPRODUCT(--($F$23:$F$242=1),$D$23:$D$242)</f>
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="K30" s="161"/>
       <c r="L30" s="1"/>
@@ -8366,7 +8367,7 @@
         <v>10000</v>
       </c>
       <c r="Q86" t="e" vm="2">
-        <f t="shared" ref="Q86:Q88" si="5">MID(M86,P86,P86+2)</f>
+        <f t="shared" ref="Q86" si="5">MID(M86,P86,P86+2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="S86" t="e" cm="1" vm="2">
@@ -8484,7 +8485,7 @@
         <v>CTG</v>
       </c>
       <c r="L89" s="157" t="e" vm="7">
-        <f t="shared" ref="L87:L93" si="8">MID(H89,1,K89-1)</f>
+        <f t="shared" ref="L89:L93" si="8">MID(H89,1,K89-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="M89" t="e" cm="1" vm="2">
@@ -8496,7 +8497,7 @@
         <v>10000</v>
       </c>
       <c r="Q89" t="e" vm="2">
-        <f t="shared" ref="Q87:Q93" si="9">MID(M89,P89,P89+2)</f>
+        <f t="shared" ref="Q89:Q93" si="9">MID(M89,P89,P89+2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="S89" t="e" cm="1" vm="2">
@@ -9107,6 +9108,12 @@
       <c r="F109" s="10"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
+      <c r="J109" s="156" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" s="156" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="110" spans="1:11" ht="24.75" customHeight="1">
       <c r="A110" s="1"/>
@@ -9123,6 +9130,12 @@
       <c r="F110" s="10"/>
       <c r="G110" s="166"/>
       <c r="H110" s="167"/>
+      <c r="J110" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="K110" s="156" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1">
       <c r="A111" s="1"/>
@@ -9133,6 +9146,12 @@
       <c r="F111" s="10"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
+      <c r="J111" s="156" t="s">
+        <v>33</v>
+      </c>
+      <c r="K111" s="156" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="112" spans="1:11" ht="14.25" customHeight="1">
       <c r="A112" s="1"/>
@@ -9145,8 +9164,14 @@
       <c r="F112" s="10"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="1:8" ht="14.25" customHeight="1">
+      <c r="J112" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="K112" s="156" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="14.25" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="3" t="s">
         <v>114</v>
@@ -9158,7 +9183,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" ht="14.25" customHeight="1">
+    <row r="114" spans="1:13" ht="14.25" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2" t="s">
@@ -9170,7 +9195,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1">
+    <row r="115" spans="1:13" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="4"/>
@@ -9180,7 +9205,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="25.5" customHeight="1">
+    <row r="116" spans="1:13" ht="25.5" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="5" t="s">
         <v>53</v>
@@ -9200,7 +9225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" customHeight="1">
+    <row r="117" spans="1:13" ht="15" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -9210,7 +9235,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="25.5" customHeight="1">
+    <row r="118" spans="1:13" ht="25.5" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="11" t="s">
         <v>116</v>
@@ -9232,8 +9257,16 @@
       <c r="H118" s="25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1">
+      <c r="K118" t="str" cm="1">
+        <f t="array" ref="K118">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H118,_xlfn.SEQUENCE(1,LEN(H118),LEN(H118),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>CACCCCGAGATCACATTTCTCACTGCCTTTTGTCTGCCCAGTTTCACCAGAAGTAGGCCTCTTCCTGACAGGCAGCTGCACCACTGCCTGGCGCTGTGCC</v>
+      </c>
+      <c r="M118" t="str" cm="1">
+        <f t="array" ref="M118">MID(K118,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K118,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -9242,8 +9275,16 @@
       <c r="F119" s="10"/>
       <c r="G119" s="1"/>
       <c r="H119" s="28"/>
-    </row>
-    <row r="120" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K119" t="e" cm="1" vm="4">
+        <f t="array" ref="K119">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H119,_xlfn.SEQUENCE(1,LEN(H119),LEN(H119),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M119" t="e" cm="1" vm="5">
+        <f t="array" ref="M119">MID(K119,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K119,4,999)),3)),3)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="25.5" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="26">
         <f t="shared" ref="B120:B139" si="10">MAX($B$1:B119)+1</f>
@@ -9255,17 +9296,27 @@
       <c r="D120" s="12">
         <v>7</v>
       </c>
-      <c r="E120" s="34"/>
+      <c r="E120" s="34" t="s">
+        <v>1086</v>
+      </c>
       <c r="F120" s="10">
         <f>IF(ISBLANK(E120),0,IF(E120=Answers!E120,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K120" t="str" cm="1">
+        <f t="array" ref="K120">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H120,_xlfn.SEQUENCE(1,LEN(H120),LEN(H120),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>ATGGCCCTGCCTTCGTGGGAACAGAGGCTAAGGCTTTGAGTTACAGCTGCCTCCCCAACAGTGCATCCCCTTCTCCTTCCTCAGCCTCAGGTAGGAGACA</v>
+      </c>
+      <c r="M120" t="str" cm="1">
+        <f t="array" ref="M120">MID(K120,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K120,4,999)),3)),3)</f>
+        <v>GGC</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="25.5" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="26">
         <f t="shared" si="10"/>
@@ -9277,17 +9328,27 @@
       <c r="D121" s="12">
         <v>7</v>
       </c>
-      <c r="E121" s="34"/>
+      <c r="E121" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F121" s="10">
         <f>IF(ISBLANK(E121),0,IF(E121=Answers!E121,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K121" t="str" cm="1">
+        <f t="array" ref="K121">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H121,_xlfn.SEQUENCE(1,LEN(H121),LEN(H121),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>TCACTGGTCCAGGAGCACTATGCTGGCAGAATCCCTTTGGTGCCTGATGGCCCTGCCTTCGTGGGAACAGAGGCTAAGGCTTTGAGTTACAGCTGCCTCC</v>
+      </c>
+      <c r="M121" t="str" cm="1">
+        <f t="array" ref="M121">MID(K121,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K121,4,999)),3)),3)</f>
+        <v>GCC</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="25.5" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="26">
         <f t="shared" si="10"/>
@@ -9299,17 +9360,27 @@
       <c r="D122" s="12">
         <v>7</v>
       </c>
-      <c r="E122" s="34"/>
+      <c r="E122" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F122" s="10">
         <f>IF(ISBLANK(E122),0,IF(E122=Answers!E122,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="25" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K122" t="str" cm="1">
+        <f t="array" ref="K122">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H122,_xlfn.SEQUENCE(1,LEN(H122),LEN(H122),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>GAATCCCTTTGGTGCCTGATGGCCCTGCCTTCGTGGGAACAGAGGCTAAGGCTTTGAGTTACAGCTGCCTCCCCAACAGTGCATCCCCTTCTCCTTCCTC</v>
+      </c>
+      <c r="M122" t="str" cm="1">
+        <f t="array" ref="M122">MID(K122,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K122,4,999)),3)),3)</f>
+        <v>GCC</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="25.5" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="26">
         <f t="shared" si="10"/>
@@ -9321,17 +9392,27 @@
       <c r="D123" s="12">
         <v>7</v>
       </c>
-      <c r="E123" s="34"/>
+      <c r="E123" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="F123" s="10">
         <f>IF(ISBLANK(E123),0,IF(E123=Answers!E123,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K123" t="str" cm="1">
+        <f t="array" ref="K123">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H123,_xlfn.SEQUENCE(1,LEN(H123),LEN(H123),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>CGAGATCACATTTCTCACTGCCTTTTGTCTGCCCAGTTTCACCAGAAGTAGGCCTCTTCCTGACAGGCAGCTGCACCACTGCCTGGCGCTGTGCCCTTCC</v>
+      </c>
+      <c r="M123" t="str" cm="1">
+        <f t="array" ref="M123">MID(K123,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K123,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="25.5" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="26">
         <f t="shared" si="10"/>
@@ -9343,17 +9424,27 @@
       <c r="D124" s="12">
         <v>7</v>
       </c>
-      <c r="E124" s="34"/>
+      <c r="E124" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="F124" s="10">
         <f>IF(ISBLANK(E124),0,IF(E124=Answers!E124,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K124" t="str" cm="1">
+        <f t="array" ref="K124">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H124,_xlfn.SEQUENCE(1,LEN(H124),LEN(H124),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>GCAAAGGAAGGGCACAGCGCCAGGCAGTGGTGCAGCTGCCTGTCAGGAAGAGGCCTACTTCTGGTGAAACTGGGCAGACAAAAGGCAGTGAGAAATGTGA</v>
+      </c>
+      <c r="M124" t="str" cm="1">
+        <f t="array" ref="M124">MID(K124,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K124,4,999)),3)),3)</f>
+        <v>TGG</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="25.5" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="26">
         <f t="shared" si="10"/>
@@ -9365,17 +9456,27 @@
       <c r="D125" s="12">
         <v>7</v>
       </c>
-      <c r="E125" s="34"/>
+      <c r="E125" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="F125" s="10">
         <f>IF(ISBLANK(E125),0,IF(E125=Answers!E125,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K125" t="str" cm="1">
+        <f t="array" ref="K125">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H125,_xlfn.SEQUENCE(1,LEN(H125),LEN(H125),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>AGATCACATTTCTCACTGCCTTTTGTCTGCCCAGTTTCACCAGAAGTAGGCCTCTTCCTGACAGGCAGCTGCACCACTGCCTGGCGCTGTGCCCTTCCTT</v>
+      </c>
+      <c r="M125" t="str" cm="1">
+        <f t="array" ref="M125">MID(K125,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K125,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="25.5" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="26">
         <f t="shared" si="10"/>
@@ -9387,17 +9488,27 @@
       <c r="D126" s="12">
         <v>7</v>
       </c>
-      <c r="E126" s="34"/>
+      <c r="E126" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="F126" s="10">
         <f>IF(ISBLANK(E126),0,IF(E126=Answers!E126,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K126" t="str" cm="1">
+        <f t="array" ref="K126">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H126,_xlfn.SEQUENCE(1,LEN(H126),LEN(H126),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>GATCACATTTCTCACTGCCTTTTGTCTGCCCAGTTTCACCAGAAGTAGGCCTCTTCCTGACAGGCAGCTGCACCACTGCCTGGCGCTGTGCCCTTCCTTT</v>
+      </c>
+      <c r="M126" t="str" cm="1">
+        <f t="array" ref="M126">MID(K126,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K126,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="25.5" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="26">
         <f t="shared" si="10"/>
@@ -9409,17 +9520,27 @@
       <c r="D127" s="12">
         <v>7</v>
       </c>
-      <c r="E127" s="34"/>
+      <c r="E127" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="F127" s="10">
         <f>IF(ISBLANK(E127),0,IF(E127=Answers!E127,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K127" t="str" cm="1">
+        <f t="array" ref="K127">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H127,_xlfn.SEQUENCE(1,LEN(H127),LEN(H127),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>ATCACATTTCTCACTGCCTTTTGTCTGCCCAGTTTCACCAGAAGTAGGCCTCTTCCTGACAGGCAGCTGCACCACTGCCTGGCGCTGTGCCCTTCCTTTG</v>
+      </c>
+      <c r="M127" t="str" cm="1">
+        <f t="array" ref="M127">MID(K127,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K127,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="25.5" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="26">
         <f t="shared" si="10"/>
@@ -9431,17 +9552,27 @@
       <c r="D128" s="12">
         <v>7</v>
       </c>
-      <c r="E128" s="34"/>
+      <c r="E128" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F128" s="10">
         <f>IF(ISBLANK(E128),0,IF(E128=Answers!E128,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K128" t="str" cm="1">
+        <f t="array" ref="K128">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H128,_xlfn.SEQUENCE(1,LEN(H128),LEN(H128),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>GCATGTCCAGGACAGGGTGCCGGGTGTATCACTGGTCCAGGAGCACTATGCTGGCAGAATCCCTTTGGTGCCTGATGGCCCTGCCTTCGTGGGAACAGAG</v>
+      </c>
+      <c r="M128" t="str" cm="1">
+        <f t="array" ref="M128">MID(K128,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K128,4,999)),3)),3)</f>
+        <v>GCC</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="25.5" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="26">
         <f t="shared" si="10"/>
@@ -9453,17 +9584,27 @@
       <c r="D129" s="12">
         <v>7</v>
       </c>
-      <c r="E129" s="34"/>
+      <c r="E129" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F129" s="10">
         <f>IF(ISBLANK(E129),0,IF(E129=Answers!E129,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="25" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K129" t="str" cm="1">
+        <f t="array" ref="K129">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H129,_xlfn.SEQUENCE(1,LEN(H129),LEN(H129),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>CCGGGTGTATCACTGGTCCAGGAGCACTATGCTGGCAGAATCCCTTTGGTGCCTGATGGCCCTGCCTTCGTGGGAACAGAGGCTAAGGCTTTGAGTTACA</v>
+      </c>
+      <c r="M129" t="str" cm="1">
+        <f t="array" ref="M129">MID(K129,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K129,4,999)),3)),3)</f>
+        <v>GCC</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="25.5" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="26">
         <f t="shared" si="10"/>
@@ -9475,17 +9616,27 @@
       <c r="D130" s="12">
         <v>7</v>
       </c>
-      <c r="E130" s="34"/>
+      <c r="E130" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F130" s="10">
         <f>IF(ISBLANK(E130),0,IF(E130=Answers!E130,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K130" t="str" cm="1">
+        <f t="array" ref="K130">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H130,_xlfn.SEQUENCE(1,LEN(H130),LEN(H130),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>TCCAGGAGCACTATGCTGGCAGAATCCCTTTGGTGCCTGATGGCCCTGCCTTCGTGGGAACAGAGGCTAAGGCTTTGAGTTACAGCTGCCTCCCCAACAG</v>
+      </c>
+      <c r="M130" t="str" cm="1">
+        <f t="array" ref="M130">MID(K130,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K130,4,999)),3)),3)</f>
+        <v>GCC</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="25.5" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="26">
         <f t="shared" si="10"/>
@@ -9497,17 +9648,27 @@
       <c r="D131" s="12">
         <v>7</v>
       </c>
-      <c r="E131" s="34"/>
+      <c r="E131" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="F131" s="10">
         <f>IF(ISBLANK(E131),0,IF(E131=Answers!E131,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K131" t="str" cm="1">
+        <f t="array" ref="K131">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H131,_xlfn.SEQUENCE(1,LEN(H131),LEN(H131),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>CTCACTGCCTTTTGTCTGCCCAGTTTCACCAGAAGTAGGCCTCTTCCTGACAGGCAGCTGCACCACTGCCTGGCGCTGTGCCCTTCCTTTGCTCTGCCCG</v>
+      </c>
+      <c r="M131" t="str" cm="1">
+        <f t="array" ref="M131">MID(K131,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K131,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="25.5" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="26">
         <f t="shared" si="10"/>
@@ -9519,17 +9680,27 @@
       <c r="D132" s="12">
         <v>7</v>
       </c>
-      <c r="E132" s="34"/>
+      <c r="E132" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="F132" s="10">
         <f>IF(ISBLANK(E132),0,IF(E132=Answers!E132,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K132" t="str" cm="1">
+        <f t="array" ref="K132">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H132,_xlfn.SEQUENCE(1,LEN(H132),LEN(H132),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>CACTGCCTTTTGTCTGCCCAGTTTCACCAGAAGTAGGCCTCTTCCTGACAGGCAGCTGCACCACTGCCTGGCGCTGTGCCCTTCCTTTGCTCTGCCCGCT</v>
+      </c>
+      <c r="M132" t="str" cm="1">
+        <f t="array" ref="M132">MID(K132,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K132,4,999)),3)),3)</f>
+        <v>AAG</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="25.5" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="26">
         <f t="shared" si="10"/>
@@ -9541,17 +9712,27 @@
       <c r="D133" s="12">
         <v>7</v>
       </c>
-      <c r="E133" s="34"/>
+      <c r="E133" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F133" s="10">
         <f>IF(ISBLANK(E133),0,IF(E133=Answers!E133,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="25" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K133" t="str" cm="1">
+        <f t="array" ref="K133">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H133,_xlfn.SEQUENCE(1,LEN(H133),LEN(H133),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>GTGTATCACTGGTCCAGGAGCACTATGCTGGCAGAATCCCTTTGGTGCCTGATGGCCCTGCCTTCGTGGGAACAGAGGCTAAGGCTTTGAGTTACAGCTG</v>
+      </c>
+      <c r="M133" t="str" cm="1">
+        <f t="array" ref="M133">MID(K133,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K133,4,999)),3)),3)</f>
+        <v>GCC</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="25.5" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="26">
         <f t="shared" si="10"/>
@@ -9563,17 +9744,27 @@
       <c r="D134" s="12">
         <v>7</v>
       </c>
-      <c r="E134" s="34"/>
+      <c r="E134" s="34" t="s">
+        <v>74</v>
+      </c>
       <c r="F134" s="10">
         <f>IF(ISBLANK(E134),0,IF(E134=Answers!E134,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="25" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K134" t="str" cm="1">
+        <f t="array" ref="K134">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H134,_xlfn.SEQUENCE(1,LEN(H134),LEN(H134),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>TCACCTTTGTAGCAGGATCCCTGCAGACCAGGCCCATGACAAACACCGTCTCCAGCGGGCAGAGCAAAGGAAGGGCACAGCGCCAGGCAGTGGTGCAGCT</v>
+      </c>
+      <c r="M134" t="str" cm="1">
+        <f t="array" ref="M134">MID(K134,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K134,4,999)),3)),3)</f>
+        <v>TTG</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="25.5" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="26">
         <f t="shared" si="10"/>
@@ -9585,17 +9776,27 @@
       <c r="D135" s="12">
         <v>7</v>
       </c>
-      <c r="E135" s="34"/>
+      <c r="E135" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="F135" s="10">
         <f>IF(ISBLANK(E135),0,IF(E135=Answers!E135,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K135" t="str" cm="1">
+        <f t="array" ref="K135">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H135,_xlfn.SEQUENCE(1,LEN(H135),LEN(H135),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>ACAAACACCGTCTCCAGCGGGCAGAGCAAAGGAAGGGCACAGCGCCAGGCAGTGGTGCAGCTGCCTGTCAGGAAGAGGCCTACTTCTGGTGAAACTGGGC</v>
+      </c>
+      <c r="M135" t="str" cm="1">
+        <f t="array" ref="M135">MID(K135,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K135,4,999)),3)),3)</f>
+        <v>TGG</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="25.5" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="26">
         <f t="shared" si="10"/>
@@ -9607,17 +9808,27 @@
       <c r="D136" s="12">
         <v>7</v>
       </c>
-      <c r="E136" s="34"/>
+      <c r="E136" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="F136" s="10">
         <f>IF(ISBLANK(E136),0,IF(E136=Answers!E136,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="25" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K136" t="str" cm="1">
+        <f t="array" ref="K136">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H136,_xlfn.SEQUENCE(1,LEN(H136),LEN(H136),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>CCGTCTCCAGCGGGCAGAGCAAAGGAAGGGCACAGCGCCAGGCAGTGGTGCAGCTGCCTGTCAGGAAGAGGCCTACTTCTGGTGAAACTGGGCAGACAAA</v>
+      </c>
+      <c r="M136" t="str" cm="1">
+        <f t="array" ref="M136">MID(K136,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K136,4,999)),3)),3)</f>
+        <v>TGG</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="25.5" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="26">
         <f t="shared" si="10"/>
@@ -9629,17 +9840,27 @@
       <c r="D137" s="12">
         <v>7</v>
       </c>
-      <c r="E137" s="34"/>
+      <c r="E137" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="F137" s="10">
         <f>IF(ISBLANK(E137),0,IF(E137=Answers!E137,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="25" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K137" t="str" cm="1">
+        <f t="array" ref="K137">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H137,_xlfn.SEQUENCE(1,LEN(H137),LEN(H137),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>AAGGAAGGGCACAGCGCCAGGCAGTGGTGCAGCTGCCTGTCAGGAAGAGGCCTACTTCTGGTGAAACTGGGCAGACAAAAGGCAGTGAGAAATGTGATCT</v>
+      </c>
+      <c r="M137" t="str" cm="1">
+        <f t="array" ref="M137">MID(K137,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K137,4,999)),3)),3)</f>
+        <v>TGG</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="25.5" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="26">
         <f t="shared" si="10"/>
@@ -9651,17 +9872,27 @@
       <c r="D138" s="12">
         <v>7</v>
       </c>
-      <c r="E138" s="34"/>
+      <c r="E138" s="34" t="s">
+        <v>62</v>
+      </c>
       <c r="F138" s="10">
         <f>IF(ISBLANK(E138),0,IF(E138=Answers!E138,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="25.5" customHeight="1">
+      <c r="K138" t="str" cm="1">
+        <f t="array" ref="K138">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H138,_xlfn.SEQUENCE(1,LEN(H138),LEN(H138),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>GGGCCCCTGCCCATCCGTGAGATCTTCCCAGGGCAGCTCCCCTCTGTGGAATCCAATCTGTCTTCCATCCTGCGTGGCCGAGGGCCAGGCTTCTCACTGG</v>
+      </c>
+      <c r="M138" t="str" cm="1">
+        <f t="array" ref="M138">MID(K138,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K138,4,999)),3)),3)</f>
+        <v>CCG</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="25.5" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="26">
         <f t="shared" si="10"/>
@@ -9673,17 +9904,27 @@
       <c r="D139" s="12">
         <v>7</v>
       </c>
-      <c r="E139" s="34"/>
+      <c r="E139" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="F139" s="10">
         <f>IF(ISBLANK(E139),0,IF(E139=Answers!E139,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="25" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="15" customHeight="1">
+      <c r="K139" t="str" cm="1">
+        <f t="array" ref="K139">_xlfn.CONCAT(_xlfn.XLOOKUP(MID(H139,_xlfn.SEQUENCE(1,LEN(H139),LEN(H139),-1),1),$J$109:$J$112,$K$109:$K$112))</f>
+        <v>CACCGTCTCCAGCGGACAGAGCAAAGGAAGGGCACAGCGCCAGGCAGTGGTGCAGCTGCCTGTCAGGAAGAGGCCTACTTCTGGTGAAACTGGGCAGACA</v>
+      </c>
+      <c r="M139" t="str" cm="1">
+        <f t="array" ref="M139">MID(K139,MIN(_xlfn.TOCOL(SEARCH(_nStop,MID(K139,4,999)),3)),3)</f>
+        <v>TGG</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -9693,7 +9934,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:8" ht="15" customHeight="1">
+    <row r="141" spans="1:13" ht="15" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -9703,7 +9944,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:8" ht="24.75" customHeight="1">
+    <row r="142" spans="1:13" ht="24.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="18" t="s">
         <v>117</v>
@@ -9719,7 +9960,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:8" ht="14.25" customHeight="1">
+    <row r="143" spans="1:13" ht="14.25" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9729,7 +9970,7 @@
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" ht="14.25" customHeight="1">
+    <row r="144" spans="1:13" ht="14.25" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="3" t="s">
         <v>120</v>
@@ -21012,10 +21253,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="194" t="s">
         <v>1019</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="196" t="s">
         <v>1020</v>
       </c>
       <c r="D2" s="180"/>
@@ -21025,7 +21266,7 @@
       <c r="H2" s="180"/>
       <c r="I2" s="180"/>
       <c r="J2" s="181"/>
-      <c r="K2" s="188" t="s">
+      <c r="K2" s="197" t="s">
         <v>1021</v>
       </c>
       <c r="L2" s="48"/>
@@ -21033,30 +21274,30 @@
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="190" t="s">
+      <c r="B3" s="195"/>
+      <c r="C3" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="191"/>
-      <c r="E3" s="190" t="s">
+      <c r="D3" s="200"/>
+      <c r="E3" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="192" t="s">
+      <c r="F3" s="200"/>
+      <c r="G3" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="I3" s="192" t="s">
+      <c r="H3" s="202"/>
+      <c r="I3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="193"/>
-      <c r="K3" s="189"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="198"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="47"/>
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="187" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -21091,7 +21332,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="47"/>
-      <c r="B5" s="195"/>
+      <c r="B5" s="188"/>
       <c r="C5" s="62" t="s">
         <v>1028</v>
       </c>
@@ -21124,7 +21365,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="47"/>
-      <c r="B6" s="195"/>
+      <c r="B6" s="188"/>
       <c r="C6" s="70" t="s">
         <v>68</v>
       </c>
@@ -21157,7 +21398,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="196"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="76" t="s">
         <v>74</v>
       </c>
@@ -21190,7 +21431,7 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="47"/>
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="190" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="84" t="s">
@@ -21226,7 +21467,7 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="47"/>
-      <c r="B9" s="198"/>
+      <c r="B9" s="191"/>
       <c r="C9" s="70" t="s">
         <v>1047</v>
       </c>
@@ -21259,7 +21500,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="47"/>
-      <c r="B10" s="198"/>
+      <c r="B10" s="191"/>
       <c r="C10" s="70" t="s">
         <v>1050</v>
       </c>
@@ -21292,7 +21533,7 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="47"/>
-      <c r="B11" s="199"/>
+      <c r="B11" s="192"/>
       <c r="C11" s="76" t="s">
         <v>66</v>
       </c>
@@ -21325,7 +21566,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="47"/>
-      <c r="B12" s="197" t="s">
+      <c r="B12" s="190" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="106" t="s">
@@ -21361,7 +21602,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="47"/>
-      <c r="B13" s="198"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="112" t="s">
         <v>1064</v>
       </c>
@@ -21394,7 +21635,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="47"/>
-      <c r="B14" s="198"/>
+      <c r="B14" s="191"/>
       <c r="C14" s="112" t="s">
         <v>1067</v>
       </c>
@@ -21427,7 +21668,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="47"/>
-      <c r="B15" s="199"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="122" t="s">
         <v>1072</v>
       </c>
@@ -21460,7 +21701,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="47"/>
-      <c r="B16" s="197" t="s">
+      <c r="B16" s="190" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="130" t="s">
@@ -21496,7 +21737,7 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="47"/>
-      <c r="B17" s="198"/>
+      <c r="B17" s="191"/>
       <c r="C17" s="138" t="s">
         <v>1084</v>
       </c>
@@ -21529,7 +21770,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="47"/>
-      <c r="B18" s="198"/>
+      <c r="B18" s="191"/>
       <c r="C18" s="138" t="s">
         <v>1087</v>
       </c>
@@ -21562,7 +21803,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="47"/>
-      <c r="B19" s="200"/>
+      <c r="B19" s="193"/>
       <c r="C19" s="148" t="s">
         <v>1092</v>
       </c>
@@ -25434,17 +25675,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Excel Esports Sequencing Leeloo - old.xlsx
+++ b/Excel Esports Sequencing Leeloo - old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9CC118-804F-4690-918A-1696297B8C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3D7815-73B8-4745-BDDD-F6F411A4B0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6266,6 +6266,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6281,21 +6296,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6683,8 +6683,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120:E139"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -21253,10 +21253,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="201" t="s">
         <v>1019</v>
       </c>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="187" t="s">
         <v>1020</v>
       </c>
       <c r="D2" s="180"/>
@@ -21266,7 +21266,7 @@
       <c r="H2" s="180"/>
       <c r="I2" s="180"/>
       <c r="J2" s="181"/>
-      <c r="K2" s="197" t="s">
+      <c r="K2" s="188" t="s">
         <v>1021</v>
       </c>
       <c r="L2" s="48"/>
@@ -21274,30 +21274,30 @@
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="199" t="s">
+      <c r="B3" s="202"/>
+      <c r="C3" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="200"/>
-      <c r="E3" s="199" t="s">
+      <c r="D3" s="191"/>
+      <c r="E3" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="201" t="s">
+      <c r="F3" s="191"/>
+      <c r="G3" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="202"/>
-      <c r="I3" s="201" t="s">
+      <c r="H3" s="193"/>
+      <c r="I3" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="202"/>
-      <c r="K3" s="198"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="189"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="47"/>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="194" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -21332,7 +21332,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="47"/>
-      <c r="B5" s="188"/>
+      <c r="B5" s="195"/>
       <c r="C5" s="62" t="s">
         <v>1028</v>
       </c>
@@ -21365,7 +21365,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="47"/>
-      <c r="B6" s="188"/>
+      <c r="B6" s="195"/>
       <c r="C6" s="70" t="s">
         <v>68</v>
       </c>
@@ -21398,7 +21398,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="189"/>
+      <c r="B7" s="196"/>
       <c r="C7" s="76" t="s">
         <v>74</v>
       </c>
@@ -21431,7 +21431,7 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="47"/>
-      <c r="B8" s="190" t="s">
+      <c r="B8" s="197" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="84" t="s">
@@ -21467,7 +21467,7 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="47"/>
-      <c r="B9" s="191"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="70" t="s">
         <v>1047</v>
       </c>
@@ -21500,7 +21500,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="47"/>
-      <c r="B10" s="191"/>
+      <c r="B10" s="198"/>
       <c r="C10" s="70" t="s">
         <v>1050</v>
       </c>
@@ -21533,7 +21533,7 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="47"/>
-      <c r="B11" s="192"/>
+      <c r="B11" s="199"/>
       <c r="C11" s="76" t="s">
         <v>66</v>
       </c>
@@ -21566,7 +21566,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="47"/>
-      <c r="B12" s="190" t="s">
+      <c r="B12" s="197" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="106" t="s">
@@ -21602,7 +21602,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="47"/>
-      <c r="B13" s="191"/>
+      <c r="B13" s="198"/>
       <c r="C13" s="112" t="s">
         <v>1064</v>
       </c>
@@ -21635,7 +21635,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="47"/>
-      <c r="B14" s="191"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="112" t="s">
         <v>1067</v>
       </c>
@@ -21668,7 +21668,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="47"/>
-      <c r="B15" s="192"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="122" t="s">
         <v>1072</v>
       </c>
@@ -21701,7 +21701,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="47"/>
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="197" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="130" t="s">
@@ -21737,7 +21737,7 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="47"/>
-      <c r="B17" s="191"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="138" t="s">
         <v>1084</v>
       </c>
@@ -21770,7 +21770,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="47"/>
-      <c r="B18" s="191"/>
+      <c r="B18" s="198"/>
       <c r="C18" s="138" t="s">
         <v>1087</v>
       </c>
@@ -21803,7 +21803,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="47"/>
-      <c r="B19" s="193"/>
+      <c r="B19" s="200"/>
       <c r="C19" s="148" t="s">
         <v>1092</v>
       </c>
@@ -25675,17 +25675,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
